--- a/population .xlsx
+++ b/population .xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gealy\OneDrive\Documents\git\baysmacro\baysmacro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F693082-9CB1-47D8-AF44-180C94B91C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D74BCA1-FA69-41AF-90B6-C8BC224D6486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FRED Graph" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
@@ -33,16 +35,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>CNP16OV</t>
+    <t>observation_date</t>
   </si>
   <si>
-    <t>observation_date</t>
+    <t xml:space="preserve">population </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -72,10 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,7328 +390,7328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B914"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:IV10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="20.7109375" customWidth="1"/>
+    <col min="1" max="253" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>17533</v>
       </c>
-      <c r="B2" s="2">
-        <v>102603</v>
+      <c r="B2">
+        <v>102603000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>17564</v>
       </c>
-      <c r="B3" s="2">
-        <v>102698</v>
+      <c r="B3">
+        <v>102698000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>17593</v>
       </c>
-      <c r="B4" s="2">
-        <v>102771</v>
+      <c r="B4">
+        <v>102771000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>17624</v>
       </c>
-      <c r="B5" s="2">
-        <v>102831</v>
+      <c r="B5">
+        <v>102831000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>17654</v>
       </c>
-      <c r="B6" s="2">
-        <v>102923</v>
+      <c r="B6">
+        <v>102923000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>17685</v>
       </c>
-      <c r="B7" s="2">
-        <v>102992</v>
+      <c r="B7">
+        <v>102992000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>17715</v>
       </c>
-      <c r="B8" s="2">
-        <v>103216</v>
+      <c r="B8">
+        <v>103216000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>17746</v>
       </c>
-      <c r="B9" s="2">
-        <v>103240</v>
+      <c r="B9">
+        <v>103240000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>17777</v>
       </c>
-      <c r="B10" s="2">
-        <v>103291</v>
+      <c r="B10">
+        <v>103291000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>17807</v>
       </c>
-      <c r="B11" s="2">
-        <v>103361</v>
+      <c r="B11">
+        <v>103361000</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>17838</v>
       </c>
-      <c r="B12" s="2">
-        <v>103424</v>
+      <c r="B12">
+        <v>103424000</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>17868</v>
       </c>
-      <c r="B13" s="2">
-        <v>103468</v>
+      <c r="B13">
+        <v>103468000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>17899</v>
       </c>
-      <c r="B14" s="2">
-        <v>103529</v>
+      <c r="B14">
+        <v>103529000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>17930</v>
       </c>
-      <c r="B15" s="2">
-        <v>103559</v>
+      <c r="B15">
+        <v>103559000</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>17958</v>
       </c>
-      <c r="B16" s="2">
-        <v>103665</v>
+      <c r="B16">
+        <v>103665000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>17989</v>
       </c>
-      <c r="B17" s="2">
-        <v>103739</v>
+      <c r="B17">
+        <v>103739000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>18019</v>
       </c>
-      <c r="B18" s="2">
-        <v>103845</v>
+      <c r="B18">
+        <v>103845000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18050</v>
       </c>
-      <c r="B19" s="2">
-        <v>103930</v>
+      <c r="B19">
+        <v>103930000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18080</v>
       </c>
-      <c r="B20" s="2">
-        <v>104042</v>
+      <c r="B20">
+        <v>104042000</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>18111</v>
       </c>
-      <c r="B21" s="2">
-        <v>104121</v>
+      <c r="B21">
+        <v>104121000</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>18142</v>
       </c>
-      <c r="B22" s="2">
-        <v>104219</v>
+      <c r="B22">
+        <v>104219000</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>18172</v>
       </c>
-      <c r="B23" s="2">
-        <v>104338</v>
+      <c r="B23">
+        <v>104338000</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>18203</v>
       </c>
-      <c r="B24" s="2">
-        <v>104421</v>
+      <c r="B24">
+        <v>104421000</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>18233</v>
       </c>
-      <c r="B25" s="2">
-        <v>104524</v>
+      <c r="B25">
+        <v>104524000</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>18264</v>
       </c>
-      <c r="B26" s="2">
-        <v>104619</v>
+      <c r="B26">
+        <v>104619000</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>18295</v>
       </c>
-      <c r="B27" s="2">
-        <v>104737</v>
+      <c r="B27">
+        <v>104737000</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>18323</v>
       </c>
-      <c r="B28" s="2">
-        <v>104844</v>
+      <c r="B28">
+        <v>104844000</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>18354</v>
       </c>
-      <c r="B29" s="2">
-        <v>104943</v>
+      <c r="B29">
+        <v>104943000</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>18384</v>
       </c>
-      <c r="B30" s="2">
-        <v>105014</v>
+      <c r="B30">
+        <v>105014000</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>18415</v>
       </c>
-      <c r="B31" s="2">
-        <v>105104</v>
+      <c r="B31">
+        <v>105104000</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>18445</v>
       </c>
-      <c r="B32" s="2">
-        <v>105194</v>
+      <c r="B32">
+        <v>105194000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>18476</v>
       </c>
-      <c r="B33" s="2">
-        <v>105282</v>
+      <c r="B33">
+        <v>105282000</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>18507</v>
       </c>
-      <c r="B34" s="2">
-        <v>105269</v>
+      <c r="B34">
+        <v>105269000</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>18537</v>
       </c>
-      <c r="B35" s="2">
-        <v>105096</v>
+      <c r="B35">
+        <v>105096000</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>18568</v>
       </c>
-      <c r="B36" s="2">
-        <v>104979</v>
+      <c r="B36">
+        <v>104979000</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>18598</v>
       </c>
-      <c r="B37" s="2">
-        <v>104872</v>
+      <c r="B37">
+        <v>104872000</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>18629</v>
       </c>
-      <c r="B38" s="2">
-        <v>104844</v>
+      <c r="B38">
+        <v>104844000</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>18660</v>
       </c>
-      <c r="B39" s="2">
-        <v>104604</v>
+      <c r="B39">
+        <v>104604000</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>18688</v>
       </c>
-      <c r="B40" s="2">
-        <v>104629</v>
+      <c r="B40">
+        <v>104629000</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>18719</v>
       </c>
-      <c r="B41" s="2">
-        <v>104541</v>
+      <c r="B41">
+        <v>104541000</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>18749</v>
       </c>
-      <c r="B42" s="2">
-        <v>104491</v>
+      <c r="B42">
+        <v>104491000</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>18780</v>
       </c>
-      <c r="B43" s="2">
-        <v>104488</v>
+      <c r="B43">
+        <v>104488000</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>18810</v>
       </c>
-      <c r="B44" s="2">
-        <v>104504</v>
+      <c r="B44">
+        <v>104504000</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>18841</v>
       </c>
-      <c r="B45" s="2">
-        <v>104536</v>
+      <c r="B45">
+        <v>104536000</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>18872</v>
       </c>
-      <c r="B46" s="2">
-        <v>104588</v>
+      <c r="B46">
+        <v>104588000</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>18902</v>
       </c>
-      <c r="B47" s="2">
-        <v>104690</v>
+      <c r="B47">
+        <v>104690000</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>18933</v>
       </c>
-      <c r="B48" s="2">
-        <v>104740</v>
+      <c r="B48">
+        <v>104740000</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>18963</v>
       </c>
-      <c r="B49" s="2">
-        <v>104810</v>
+      <c r="B49">
+        <v>104810000</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>18994</v>
       </c>
-      <c r="B50" s="2">
-        <v>104862</v>
+      <c r="B50">
+        <v>104862000</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>19025</v>
       </c>
-      <c r="B51" s="2">
-        <v>104868</v>
+      <c r="B51">
+        <v>104868000</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>19054</v>
       </c>
-      <c r="B52" s="2">
-        <v>104860</v>
+      <c r="B52">
+        <v>104860000</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>19085</v>
       </c>
-      <c r="B53" s="2">
-        <v>104906</v>
+      <c r="B53">
+        <v>104906000</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>19115</v>
       </c>
-      <c r="B54" s="2">
-        <v>104996</v>
+      <c r="B54">
+        <v>104996000</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>19146</v>
       </c>
-      <c r="B55" s="2">
-        <v>105118</v>
+      <c r="B55">
+        <v>105118000</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>19176</v>
       </c>
-      <c r="B56" s="2">
-        <v>105246</v>
+      <c r="B56">
+        <v>105246000</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>19207</v>
       </c>
-      <c r="B57" s="2">
-        <v>105346</v>
+      <c r="B57">
+        <v>105346000</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>19238</v>
       </c>
-      <c r="B58" s="2">
-        <v>105436</v>
+      <c r="B58">
+        <v>105436000</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>19268</v>
       </c>
-      <c r="B59" s="2">
-        <v>105591</v>
+      <c r="B59">
+        <v>105591000</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>19299</v>
       </c>
-      <c r="B60" s="2">
-        <v>105706</v>
+      <c r="B60">
+        <v>105706000</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>19329</v>
       </c>
-      <c r="B61" s="2">
-        <v>105812</v>
+      <c r="B61">
+        <v>105812000</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>19360</v>
       </c>
-      <c r="B62" s="2">
-        <v>106594</v>
+      <c r="B62">
+        <v>106594000</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>19391</v>
       </c>
-      <c r="B63" s="2">
-        <v>106678</v>
+      <c r="B63">
+        <v>106678000</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>19419</v>
       </c>
-      <c r="B64" s="2">
-        <v>106744</v>
+      <c r="B64">
+        <v>106744000</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>19450</v>
       </c>
-      <c r="B65" s="2">
-        <v>106826</v>
+      <c r="B65">
+        <v>106826000</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>19480</v>
       </c>
-      <c r="B66" s="2">
-        <v>106910</v>
+      <c r="B66">
+        <v>106910000</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>19511</v>
       </c>
-      <c r="B67" s="2">
-        <v>106978</v>
+      <c r="B67">
+        <v>106978000</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>19541</v>
       </c>
-      <c r="B68" s="2">
-        <v>107034</v>
+      <c r="B68">
+        <v>107034000</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>19572</v>
       </c>
-      <c r="B69" s="2">
-        <v>107132</v>
+      <c r="B69">
+        <v>107132000</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>19603</v>
       </c>
-      <c r="B70" s="2">
-        <v>107253</v>
+      <c r="B70">
+        <v>107253000</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>19633</v>
       </c>
-      <c r="B71" s="2">
-        <v>107383</v>
+      <c r="B71">
+        <v>107383000</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>19664</v>
       </c>
-      <c r="B72" s="2">
-        <v>107504</v>
+      <c r="B72">
+        <v>107504000</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>19694</v>
       </c>
-      <c r="B73" s="2">
-        <v>107623</v>
+      <c r="B73">
+        <v>107623000</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>19725</v>
       </c>
-      <c r="B74" s="2">
-        <v>107763</v>
+      <c r="B74">
+        <v>107763000</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>19756</v>
       </c>
-      <c r="B75" s="2">
-        <v>107880</v>
+      <c r="B75">
+        <v>107880000</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>19784</v>
       </c>
-      <c r="B76" s="2">
-        <v>107987</v>
+      <c r="B76">
+        <v>107987000</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>19815</v>
       </c>
-      <c r="B77" s="2">
-        <v>108080</v>
+      <c r="B77">
+        <v>108080000</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>19845</v>
       </c>
-      <c r="B78" s="2">
-        <v>108184</v>
+      <c r="B78">
+        <v>108184000</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>19876</v>
       </c>
-      <c r="B79" s="2">
-        <v>108267</v>
+      <c r="B79">
+        <v>108267000</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>19906</v>
       </c>
-      <c r="B80" s="2">
-        <v>108344</v>
+      <c r="B80">
+        <v>108344000</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>19937</v>
       </c>
-      <c r="B81" s="2">
-        <v>108440</v>
+      <c r="B81">
+        <v>108440000</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>19968</v>
       </c>
-      <c r="B82" s="2">
-        <v>108546</v>
+      <c r="B82">
+        <v>108546000</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>19998</v>
       </c>
-      <c r="B83" s="2">
-        <v>108668</v>
+      <c r="B83">
+        <v>108668000</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>20029</v>
       </c>
-      <c r="B84" s="2">
-        <v>108798</v>
+      <c r="B84">
+        <v>108798000</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>20059</v>
       </c>
-      <c r="B85" s="2">
-        <v>108892</v>
+      <c r="B85">
+        <v>108892000</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>20090</v>
       </c>
-      <c r="B86" s="2">
-        <v>109059</v>
+      <c r="B86">
+        <v>109059000</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>20121</v>
       </c>
-      <c r="B87" s="2">
-        <v>109078</v>
+      <c r="B87">
+        <v>109078000</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>20149</v>
       </c>
-      <c r="B88" s="2">
-        <v>109254</v>
+      <c r="B88">
+        <v>109254000</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>20180</v>
       </c>
-      <c r="B89" s="2">
-        <v>109377</v>
+      <c r="B89">
+        <v>109377000</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>20210</v>
       </c>
-      <c r="B90" s="2">
-        <v>109544</v>
+      <c r="B90">
+        <v>109544000</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>20241</v>
       </c>
-      <c r="B91" s="2">
-        <v>109680</v>
+      <c r="B91">
+        <v>109680000</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>20271</v>
       </c>
-      <c r="B92" s="2">
-        <v>109792</v>
+      <c r="B92">
+        <v>109792000</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>20302</v>
       </c>
-      <c r="B93" s="2">
-        <v>109882</v>
+      <c r="B93">
+        <v>109882000</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>20333</v>
       </c>
-      <c r="B94" s="2">
-        <v>109977</v>
+      <c r="B94">
+        <v>109977000</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>20363</v>
       </c>
-      <c r="B95" s="2">
-        <v>110085</v>
+      <c r="B95">
+        <v>110085000</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>20394</v>
       </c>
-      <c r="B96" s="2">
-        <v>110177</v>
+      <c r="B96">
+        <v>110177000</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>20424</v>
       </c>
-      <c r="B97" s="2">
-        <v>110296</v>
+      <c r="B97">
+        <v>110296000</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>20455</v>
       </c>
-      <c r="B98" s="2">
-        <v>110390</v>
+      <c r="B98">
+        <v>110390000</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>20486</v>
       </c>
-      <c r="B99" s="2">
-        <v>110478</v>
+      <c r="B99">
+        <v>110478000</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>20515</v>
       </c>
-      <c r="B100" s="2">
-        <v>110582</v>
+      <c r="B100">
+        <v>110582000</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>20546</v>
       </c>
-      <c r="B101" s="2">
-        <v>110650</v>
+      <c r="B101">
+        <v>110650000</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>20576</v>
       </c>
-      <c r="B102" s="2">
-        <v>110810</v>
+      <c r="B102">
+        <v>110810000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>20607</v>
       </c>
-      <c r="B103" s="2">
-        <v>110903</v>
+      <c r="B103">
+        <v>110903000</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>20637</v>
       </c>
-      <c r="B104" s="2">
-        <v>111019</v>
+      <c r="B104">
+        <v>111019000</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>20668</v>
       </c>
-      <c r="B105" s="2">
-        <v>111099</v>
+      <c r="B105">
+        <v>111099000</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>20699</v>
       </c>
-      <c r="B106" s="2">
-        <v>111222</v>
+      <c r="B106">
+        <v>111222000</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>20729</v>
       </c>
-      <c r="B107" s="2">
-        <v>111335</v>
+      <c r="B107">
+        <v>111335000</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>20760</v>
       </c>
-      <c r="B108" s="2">
-        <v>111432</v>
+      <c r="B108">
+        <v>111432000</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>20790</v>
       </c>
-      <c r="B109" s="2">
-        <v>111526</v>
+      <c r="B109">
+        <v>111526000</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>20821</v>
       </c>
-      <c r="B110" s="2">
-        <v>111626</v>
+      <c r="B110">
+        <v>111626000</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>20852</v>
       </c>
-      <c r="B111" s="2">
-        <v>111711</v>
+      <c r="B111">
+        <v>111711000</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>20880</v>
       </c>
-      <c r="B112" s="2">
-        <v>111824</v>
+      <c r="B112">
+        <v>111824000</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>20911</v>
       </c>
-      <c r="B113" s="2">
-        <v>111933</v>
+      <c r="B113">
+        <v>111933000</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>20941</v>
       </c>
-      <c r="B114" s="2">
-        <v>112031</v>
+      <c r="B114">
+        <v>112031000</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>20972</v>
       </c>
-      <c r="B115" s="2">
-        <v>112172</v>
+      <c r="B115">
+        <v>112172000</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>21002</v>
       </c>
-      <c r="B116" s="2">
-        <v>112317</v>
+      <c r="B116">
+        <v>112317000</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>21033</v>
       </c>
-      <c r="B117" s="2">
-        <v>112421</v>
+      <c r="B117">
+        <v>112421000</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>21064</v>
       </c>
-      <c r="B118" s="2">
-        <v>112554</v>
+      <c r="B118">
+        <v>112554000</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>21094</v>
       </c>
-      <c r="B119" s="2">
-        <v>112710</v>
+      <c r="B119">
+        <v>112710000</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>21125</v>
       </c>
-      <c r="B120" s="2">
-        <v>112874</v>
+      <c r="B120">
+        <v>112874000</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>21155</v>
       </c>
-      <c r="B121" s="2">
-        <v>113013</v>
+      <c r="B121">
+        <v>113013000</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>21186</v>
       </c>
-      <c r="B122" s="2">
-        <v>113138</v>
+      <c r="B122">
+        <v>113138000</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>21217</v>
       </c>
-      <c r="B123" s="2">
-        <v>113234</v>
+      <c r="B123">
+        <v>113234000</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>21245</v>
       </c>
-      <c r="B124" s="2">
-        <v>113337</v>
+      <c r="B124">
+        <v>113337000</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>21276</v>
       </c>
-      <c r="B125" s="2">
-        <v>113415</v>
+      <c r="B125">
+        <v>113415000</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>21306</v>
       </c>
-      <c r="B126" s="2">
-        <v>113534</v>
+      <c r="B126">
+        <v>113534000</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>21337</v>
       </c>
-      <c r="B127" s="2">
-        <v>113647</v>
+      <c r="B127">
+        <v>113647000</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>21367</v>
       </c>
-      <c r="B128" s="2">
-        <v>113727</v>
+      <c r="B128">
+        <v>113727000</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>21398</v>
       </c>
-      <c r="B129" s="2">
-        <v>113835</v>
+      <c r="B129">
+        <v>113835000</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>21429</v>
       </c>
-      <c r="B130" s="2">
-        <v>113977</v>
+      <c r="B130">
+        <v>113977000</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>21459</v>
       </c>
-      <c r="B131" s="2">
-        <v>114138</v>
+      <c r="B131">
+        <v>114138000</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>21490</v>
       </c>
-      <c r="B132" s="2">
-        <v>114283</v>
+      <c r="B132">
+        <v>114283000</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>21520</v>
       </c>
-      <c r="B133" s="2">
-        <v>114429</v>
+      <c r="B133">
+        <v>114429000</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>21551</v>
       </c>
-      <c r="B134" s="2">
-        <v>114582</v>
+      <c r="B134">
+        <v>114582000</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>21582</v>
       </c>
-      <c r="B135" s="2">
-        <v>114712</v>
+      <c r="B135">
+        <v>114712000</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>21610</v>
       </c>
-      <c r="B136" s="2">
-        <v>114849</v>
+      <c r="B136">
+        <v>114849000</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>21641</v>
       </c>
-      <c r="B137" s="2">
-        <v>114986</v>
+      <c r="B137">
+        <v>114986000</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>21671</v>
       </c>
-      <c r="B138" s="2">
-        <v>115144</v>
+      <c r="B138">
+        <v>115144000</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>21702</v>
       </c>
-      <c r="B139" s="2">
-        <v>115287</v>
+      <c r="B139">
+        <v>115287000</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>21732</v>
       </c>
-      <c r="B140" s="2">
-        <v>115429</v>
+      <c r="B140">
+        <v>115429000</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>21763</v>
       </c>
-      <c r="B141" s="2">
-        <v>115555</v>
+      <c r="B141">
+        <v>115555000</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>21794</v>
       </c>
-      <c r="B142" s="2">
-        <v>115668</v>
+      <c r="B142">
+        <v>115668000</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>21824</v>
       </c>
-      <c r="B143" s="2">
-        <v>115798</v>
+      <c r="B143">
+        <v>115798000</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>21855</v>
       </c>
-      <c r="B144" s="2">
-        <v>115916</v>
+      <c r="B144">
+        <v>115916000</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>21885</v>
       </c>
-      <c r="B145" s="2">
-        <v>116040</v>
+      <c r="B145">
+        <v>116040000</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>21916</v>
       </c>
-      <c r="B146" s="2">
-        <v>116594</v>
+      <c r="B146">
+        <v>116594000</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>21947</v>
       </c>
-      <c r="B147" s="2">
-        <v>116702</v>
+      <c r="B147">
+        <v>116702000</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>21976</v>
       </c>
-      <c r="B148" s="2">
-        <v>116827</v>
+      <c r="B148">
+        <v>116827000</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>22007</v>
       </c>
-      <c r="B149" s="2">
-        <v>116910</v>
+      <c r="B149">
+        <v>116910000</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>22037</v>
       </c>
-      <c r="B150" s="2">
-        <v>117033</v>
+      <c r="B150">
+        <v>117033000</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>22068</v>
       </c>
-      <c r="B151" s="2">
-        <v>117167</v>
+      <c r="B151">
+        <v>117167000</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>22098</v>
       </c>
-      <c r="B152" s="2">
-        <v>117281</v>
+      <c r="B152">
+        <v>117281000</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>22129</v>
       </c>
-      <c r="B153" s="2">
-        <v>117431</v>
+      <c r="B153">
+        <v>117431000</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>22160</v>
       </c>
-      <c r="B154" s="2">
-        <v>117521</v>
+      <c r="B154">
+        <v>117521000</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>22190</v>
       </c>
-      <c r="B155" s="2">
-        <v>117643</v>
+      <c r="B155">
+        <v>117643000</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>22221</v>
       </c>
-      <c r="B156" s="2">
-        <v>117829</v>
+      <c r="B156">
+        <v>117829000</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>22251</v>
       </c>
-      <c r="B157" s="2">
-        <v>118001</v>
+      <c r="B157">
+        <v>118001000</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>22282</v>
       </c>
-      <c r="B158" s="2">
-        <v>118155</v>
+      <c r="B158">
+        <v>118155000</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>22313</v>
       </c>
-      <c r="B159" s="2">
-        <v>118250</v>
+      <c r="B159">
+        <v>118250000</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>22341</v>
       </c>
-      <c r="B160" s="2">
-        <v>118358</v>
+      <c r="B160">
+        <v>118358000</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>22372</v>
       </c>
-      <c r="B161" s="2">
-        <v>118503</v>
+      <c r="B161">
+        <v>118503000</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>22402</v>
       </c>
-      <c r="B162" s="2">
-        <v>118638</v>
+      <c r="B162">
+        <v>118638000</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>22433</v>
       </c>
-      <c r="B163" s="2">
-        <v>118767</v>
+      <c r="B163">
+        <v>118767000</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>22463</v>
       </c>
-      <c r="B164" s="2">
-        <v>118889</v>
+      <c r="B164">
+        <v>118889000</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>22494</v>
       </c>
-      <c r="B165" s="2">
-        <v>119006</v>
+      <c r="B165">
+        <v>119006000</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>22525</v>
       </c>
-      <c r="B166" s="2">
-        <v>119107</v>
+      <c r="B166">
+        <v>119107000</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>22555</v>
       </c>
-      <c r="B167" s="2">
-        <v>119202</v>
+      <c r="B167">
+        <v>119202000</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>22586</v>
       </c>
-      <c r="B168" s="2">
-        <v>119153</v>
+      <c r="B168">
+        <v>119153000</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>22616</v>
       </c>
-      <c r="B169" s="2">
-        <v>119214</v>
+      <c r="B169">
+        <v>119214000</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>22647</v>
       </c>
-      <c r="B170" s="2">
-        <v>119300</v>
+      <c r="B170">
+        <v>119300000</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>22678</v>
       </c>
-      <c r="B171" s="2">
-        <v>119360</v>
+      <c r="B171">
+        <v>119360000</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>22706</v>
       </c>
-      <c r="B172" s="2">
-        <v>119476</v>
+      <c r="B172">
+        <v>119476000</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>22737</v>
       </c>
-      <c r="B173" s="2">
-        <v>119702</v>
+      <c r="B173">
+        <v>119702000</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>22767</v>
       </c>
-      <c r="B174" s="2">
-        <v>119813</v>
+      <c r="B174">
+        <v>119813000</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>22798</v>
       </c>
-      <c r="B175" s="2">
-        <v>119943</v>
+      <c r="B175">
+        <v>119943000</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>22828</v>
       </c>
-      <c r="B176" s="2">
-        <v>120128</v>
+      <c r="B176">
+        <v>120128000</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>22859</v>
       </c>
-      <c r="B177" s="2">
-        <v>120323</v>
+      <c r="B177">
+        <v>120323000</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>22890</v>
       </c>
-      <c r="B178" s="2">
-        <v>120653</v>
+      <c r="B178">
+        <v>120653000</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>22920</v>
       </c>
-      <c r="B179" s="2">
-        <v>120856</v>
+      <c r="B179">
+        <v>120856000</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>22951</v>
       </c>
-      <c r="B180" s="2">
-        <v>121045</v>
+      <c r="B180">
+        <v>121045000</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>22981</v>
       </c>
-      <c r="B181" s="2">
-        <v>121236</v>
+      <c r="B181">
+        <v>121236000</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>23012</v>
       </c>
-      <c r="B182" s="2">
-        <v>121463</v>
+      <c r="B182">
+        <v>121463000</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>23043</v>
       </c>
-      <c r="B183" s="2">
-        <v>121633</v>
+      <c r="B183">
+        <v>121633000</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>23071</v>
       </c>
-      <c r="B184" s="2">
-        <v>121824</v>
+      <c r="B184">
+        <v>121824000</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>23102</v>
       </c>
-      <c r="B185" s="2">
-        <v>121986</v>
+      <c r="B185">
+        <v>121986000</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>23132</v>
       </c>
-      <c r="B186" s="2">
-        <v>122162</v>
+      <c r="B186">
+        <v>122162000</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>23163</v>
       </c>
-      <c r="B187" s="2">
-        <v>122352</v>
+      <c r="B187">
+        <v>122352000</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>23193</v>
       </c>
-      <c r="B188" s="2">
-        <v>122521</v>
+      <c r="B188">
+        <v>122521000</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>23224</v>
       </c>
-      <c r="B189" s="2">
-        <v>122667</v>
+      <c r="B189">
+        <v>122667000</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>23255</v>
       </c>
-      <c r="B190" s="2">
-        <v>122821</v>
+      <c r="B190">
+        <v>122821000</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>23285</v>
       </c>
-      <c r="B191" s="2">
-        <v>123014</v>
+      <c r="B191">
+        <v>123014000</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>23316</v>
       </c>
-      <c r="B192" s="2">
-        <v>123192</v>
+      <c r="B192">
+        <v>123192000</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>23346</v>
       </c>
-      <c r="B193" s="2">
-        <v>123360</v>
+      <c r="B193">
+        <v>123360000</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>23377</v>
       </c>
-      <c r="B194" s="2">
-        <v>123560</v>
+      <c r="B194">
+        <v>123560000</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>23408</v>
       </c>
-      <c r="B195" s="2">
-        <v>123707</v>
+      <c r="B195">
+        <v>123707000</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>23437</v>
       </c>
-      <c r="B196" s="2">
-        <v>123857</v>
+      <c r="B196">
+        <v>123857000</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>23468</v>
       </c>
-      <c r="B197" s="2">
-        <v>124019</v>
+      <c r="B197">
+        <v>124019000</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>23498</v>
       </c>
-      <c r="B198" s="2">
-        <v>124204</v>
+      <c r="B198">
+        <v>124204000</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>23529</v>
       </c>
-      <c r="B199" s="2">
-        <v>124386</v>
+      <c r="B199">
+        <v>124386000</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>23559</v>
       </c>
-      <c r="B200" s="2">
-        <v>124567</v>
+      <c r="B200">
+        <v>124567000</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>23590</v>
       </c>
-      <c r="B201" s="2">
-        <v>124731</v>
+      <c r="B201">
+        <v>124731000</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>23621</v>
       </c>
-      <c r="B202" s="2">
-        <v>124920</v>
+      <c r="B202">
+        <v>124920000</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>23651</v>
       </c>
-      <c r="B203" s="2">
-        <v>125108</v>
+      <c r="B203">
+        <v>125108000</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>23682</v>
       </c>
-      <c r="B204" s="2">
-        <v>125291</v>
+      <c r="B204">
+        <v>125291000</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>23712</v>
       </c>
-      <c r="B205" s="2">
-        <v>125468</v>
+      <c r="B205">
+        <v>125468000</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>23743</v>
       </c>
-      <c r="B206" s="2">
-        <v>125647</v>
+      <c r="B206">
+        <v>125647000</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>23774</v>
       </c>
-      <c r="B207" s="2">
-        <v>125810</v>
+      <c r="B207">
+        <v>125810000</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>23802</v>
       </c>
-      <c r="B208" s="2">
-        <v>125985</v>
+      <c r="B208">
+        <v>125985000</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>23833</v>
       </c>
-      <c r="B209" s="2">
-        <v>126155</v>
+      <c r="B209">
+        <v>126155000</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>23863</v>
       </c>
-      <c r="B210" s="2">
-        <v>126320</v>
+      <c r="B210">
+        <v>126320000</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>23894</v>
       </c>
-      <c r="B211" s="2">
-        <v>126499</v>
+      <c r="B211">
+        <v>126499000</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>23924</v>
       </c>
-      <c r="B212" s="2">
-        <v>126573</v>
+      <c r="B212">
+        <v>126573000</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>23955</v>
       </c>
-      <c r="B213" s="2">
-        <v>126756</v>
+      <c r="B213">
+        <v>126756000</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>23986</v>
       </c>
-      <c r="B214" s="2">
-        <v>126906</v>
+      <c r="B214">
+        <v>126906000</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>24016</v>
       </c>
-      <c r="B215" s="2">
-        <v>127043</v>
+      <c r="B215">
+        <v>127043000</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>24047</v>
       </c>
-      <c r="B216" s="2">
-        <v>127171</v>
+      <c r="B216">
+        <v>127171000</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>24077</v>
       </c>
-      <c r="B217" s="2">
-        <v>127294</v>
+      <c r="B217">
+        <v>127294000</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>24108</v>
       </c>
-      <c r="B218" s="2">
-        <v>127394</v>
+      <c r="B218">
+        <v>127394000</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>24139</v>
       </c>
-      <c r="B219" s="2">
-        <v>127514</v>
+      <c r="B219">
+        <v>127514000</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>24167</v>
       </c>
-      <c r="B220" s="2">
-        <v>127626</v>
+      <c r="B220">
+        <v>127626000</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>24198</v>
       </c>
-      <c r="B221" s="2">
-        <v>127744</v>
+      <c r="B221">
+        <v>127744000</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>24228</v>
       </c>
-      <c r="B222" s="2">
-        <v>127879</v>
+      <c r="B222">
+        <v>127879000</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>24259</v>
       </c>
-      <c r="B223" s="2">
-        <v>127983</v>
+      <c r="B223">
+        <v>127983000</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>24289</v>
       </c>
-      <c r="B224" s="2">
-        <v>128102</v>
+      <c r="B224">
+        <v>128102000</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>24320</v>
       </c>
-      <c r="B225" s="2">
-        <v>128240</v>
+      <c r="B225">
+        <v>128240000</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>24351</v>
       </c>
-      <c r="B226" s="2">
-        <v>128359</v>
+      <c r="B226">
+        <v>128359000</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>24381</v>
       </c>
-      <c r="B227" s="2">
-        <v>128494</v>
+      <c r="B227">
+        <v>128494000</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>24412</v>
       </c>
-      <c r="B228" s="2">
-        <v>128627</v>
+      <c r="B228">
+        <v>128627000</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>24442</v>
       </c>
-      <c r="B229" s="2">
-        <v>128730</v>
+      <c r="B229">
+        <v>128730000</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>24473</v>
       </c>
-      <c r="B230" s="2">
-        <v>128909</v>
+      <c r="B230">
+        <v>128909000</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>24504</v>
       </c>
-      <c r="B231" s="2">
-        <v>129032</v>
+      <c r="B231">
+        <v>129032000</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>24532</v>
       </c>
-      <c r="B232" s="2">
-        <v>129190</v>
+      <c r="B232">
+        <v>129190000</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>24563</v>
       </c>
-      <c r="B233" s="2">
-        <v>129344</v>
+      <c r="B233">
+        <v>129344000</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>24593</v>
       </c>
-      <c r="B234" s="2">
-        <v>129515</v>
+      <c r="B234">
+        <v>129515000</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>24624</v>
       </c>
-      <c r="B235" s="2">
-        <v>129722</v>
+      <c r="B235">
+        <v>129722000</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>24654</v>
       </c>
-      <c r="B236" s="2">
-        <v>129918</v>
+      <c r="B236">
+        <v>129918000</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>24685</v>
       </c>
-      <c r="B237" s="2">
-        <v>130187</v>
+      <c r="B237">
+        <v>130187000</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>24716</v>
       </c>
-      <c r="B238" s="2">
-        <v>130392</v>
+      <c r="B238">
+        <v>130392000</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>24746</v>
       </c>
-      <c r="B239" s="2">
-        <v>130582</v>
+      <c r="B239">
+        <v>130582000</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>24777</v>
       </c>
-      <c r="B240" s="2">
-        <v>130754</v>
+      <c r="B240">
+        <v>130754000</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>24807</v>
       </c>
-      <c r="B241" s="2">
-        <v>130936</v>
+      <c r="B241">
+        <v>130936000</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>24838</v>
       </c>
-      <c r="B242" s="2">
-        <v>131112</v>
+      <c r="B242">
+        <v>131112000</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>24869</v>
       </c>
-      <c r="B243" s="2">
-        <v>131277</v>
+      <c r="B243">
+        <v>131277000</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>24898</v>
       </c>
-      <c r="B244" s="2">
-        <v>131412</v>
+      <c r="B244">
+        <v>131412000</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>24929</v>
       </c>
-      <c r="B245" s="2">
-        <v>131553</v>
+      <c r="B245">
+        <v>131553000</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>24959</v>
       </c>
-      <c r="B246" s="2">
-        <v>131712</v>
+      <c r="B246">
+        <v>131712000</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>24990</v>
       </c>
-      <c r="B247" s="2">
-        <v>131872</v>
+      <c r="B247">
+        <v>131872000</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>25020</v>
       </c>
-      <c r="B248" s="2">
-        <v>132053</v>
+      <c r="B248">
+        <v>132053000</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>25051</v>
       </c>
-      <c r="B249" s="2">
-        <v>132251</v>
+      <c r="B249">
+        <v>132251000</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>25082</v>
       </c>
-      <c r="B250" s="2">
-        <v>132446</v>
+      <c r="B250">
+        <v>132446000</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>25112</v>
       </c>
-      <c r="B251" s="2">
-        <v>132617</v>
+      <c r="B251">
+        <v>132617000</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>25143</v>
       </c>
-      <c r="B252" s="2">
-        <v>132903</v>
+      <c r="B252">
+        <v>132903000</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>25173</v>
       </c>
-      <c r="B253" s="2">
-        <v>133120</v>
+      <c r="B253">
+        <v>133120000</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>25204</v>
       </c>
-      <c r="B254" s="2">
-        <v>133324</v>
+      <c r="B254">
+        <v>133324000</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>25235</v>
       </c>
-      <c r="B255" s="2">
-        <v>133465</v>
+      <c r="B255">
+        <v>133465000</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>25263</v>
       </c>
-      <c r="B256" s="2">
-        <v>133639</v>
+      <c r="B256">
+        <v>133639000</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>25294</v>
       </c>
-      <c r="B257" s="2">
-        <v>133821</v>
+      <c r="B257">
+        <v>133821000</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>25324</v>
       </c>
-      <c r="B258" s="2">
-        <v>134027</v>
+      <c r="B258">
+        <v>134027000</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>25355</v>
       </c>
-      <c r="B259" s="2">
-        <v>134213</v>
+      <c r="B259">
+        <v>134213000</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>25385</v>
       </c>
-      <c r="B260" s="2">
-        <v>134414</v>
+      <c r="B260">
+        <v>134414000</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>25416</v>
       </c>
-      <c r="B261" s="2">
-        <v>134597</v>
+      <c r="B261">
+        <v>134597000</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>25447</v>
       </c>
-      <c r="B262" s="2">
-        <v>134774</v>
+      <c r="B262">
+        <v>134774000</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>25477</v>
       </c>
-      <c r="B263" s="2">
-        <v>135012</v>
+      <c r="B263">
+        <v>135012000</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>25508</v>
       </c>
-      <c r="B264" s="2">
-        <v>135239</v>
+      <c r="B264">
+        <v>135239000</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>25538</v>
       </c>
-      <c r="B265" s="2">
-        <v>135489</v>
+      <c r="B265">
+        <v>135489000</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>25569</v>
       </c>
-      <c r="B266" s="2">
-        <v>135713</v>
+      <c r="B266">
+        <v>135713000</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>25600</v>
       </c>
-      <c r="B267" s="2">
-        <v>135957</v>
+      <c r="B267">
+        <v>135957000</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>25628</v>
       </c>
-      <c r="B268" s="2">
-        <v>136179</v>
+      <c r="B268">
+        <v>136179000</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>25659</v>
       </c>
-      <c r="B269" s="2">
-        <v>136416</v>
+      <c r="B269">
+        <v>136416000</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>25689</v>
       </c>
-      <c r="B270" s="2">
-        <v>136686</v>
+      <c r="B270">
+        <v>136686000</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>25720</v>
       </c>
-      <c r="B271" s="2">
-        <v>136928</v>
+      <c r="B271">
+        <v>136928000</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>25750</v>
       </c>
-      <c r="B272" s="2">
-        <v>137196</v>
+      <c r="B272">
+        <v>137196000</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>25781</v>
       </c>
-      <c r="B273" s="2">
-        <v>137455</v>
+      <c r="B273">
+        <v>137455000</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>25812</v>
       </c>
-      <c r="B274" s="2">
-        <v>137717</v>
+      <c r="B274">
+        <v>137717000</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>25842</v>
       </c>
-      <c r="B275" s="2">
-        <v>137988</v>
+      <c r="B275">
+        <v>137988000</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>25873</v>
       </c>
-      <c r="B276" s="2">
-        <v>138264</v>
+      <c r="B276">
+        <v>138264000</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>25903</v>
       </c>
-      <c r="B277" s="2">
-        <v>138529</v>
+      <c r="B277">
+        <v>138529000</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>25934</v>
       </c>
-      <c r="B278" s="2">
-        <v>138795</v>
+      <c r="B278">
+        <v>138795000</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>25965</v>
       </c>
-      <c r="B279" s="2">
-        <v>139021</v>
+      <c r="B279">
+        <v>139021000</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>25993</v>
       </c>
-      <c r="B280" s="2">
-        <v>139285</v>
+      <c r="B280">
+        <v>139285000</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>26024</v>
       </c>
-      <c r="B281" s="2">
-        <v>139566</v>
+      <c r="B281">
+        <v>139566000</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>26054</v>
       </c>
-      <c r="B282" s="2">
-        <v>139826</v>
+      <c r="B282">
+        <v>139826000</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>26085</v>
       </c>
-      <c r="B283" s="2">
-        <v>140090</v>
+      <c r="B283">
+        <v>140090000</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>26115</v>
       </c>
-      <c r="B284" s="2">
-        <v>140343</v>
+      <c r="B284">
+        <v>140343000</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>26146</v>
       </c>
-      <c r="B285" s="2">
-        <v>140596</v>
+      <c r="B285">
+        <v>140596000</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>26177</v>
       </c>
-      <c r="B286" s="2">
-        <v>140869</v>
+      <c r="B286">
+        <v>140869000</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>26207</v>
       </c>
-      <c r="B287" s="2">
-        <v>141146</v>
+      <c r="B287">
+        <v>141146000</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>26238</v>
       </c>
-      <c r="B288" s="2">
-        <v>141393</v>
+      <c r="B288">
+        <v>141393000</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>26268</v>
       </c>
-      <c r="B289" s="2">
-        <v>141666</v>
+      <c r="B289">
+        <v>141666000</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>26299</v>
       </c>
-      <c r="B290" s="2">
-        <v>142736</v>
+      <c r="B290">
+        <v>142736000</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>26330</v>
       </c>
-      <c r="B291" s="2">
-        <v>143017</v>
+      <c r="B291">
+        <v>143017000</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>26359</v>
       </c>
-      <c r="B292" s="2">
-        <v>143263</v>
+      <c r="B292">
+        <v>143263000</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>26390</v>
       </c>
-      <c r="B293" s="2">
-        <v>143483</v>
+      <c r="B293">
+        <v>143483000</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>26420</v>
       </c>
-      <c r="B294" s="2">
-        <v>143760</v>
+      <c r="B294">
+        <v>143760000</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>26451</v>
       </c>
-      <c r="B295" s="2">
-        <v>144033</v>
+      <c r="B295">
+        <v>144033000</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>26481</v>
       </c>
-      <c r="B296" s="2">
-        <v>144285</v>
+      <c r="B296">
+        <v>144285000</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>26512</v>
       </c>
-      <c r="B297" s="2">
-        <v>144522</v>
+      <c r="B297">
+        <v>144522000</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>26543</v>
       </c>
-      <c r="B298" s="2">
-        <v>144761</v>
+      <c r="B298">
+        <v>144761000</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>26573</v>
       </c>
-      <c r="B299" s="2">
-        <v>144988</v>
+      <c r="B299">
+        <v>144988000</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>26604</v>
       </c>
-      <c r="B300" s="2">
-        <v>145211</v>
+      <c r="B300">
+        <v>145211000</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>26634</v>
       </c>
-      <c r="B301" s="2">
-        <v>145446</v>
+      <c r="B301">
+        <v>145446000</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>26665</v>
       </c>
-      <c r="B302" s="2">
-        <v>145720</v>
+      <c r="B302">
+        <v>145720000</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>26696</v>
       </c>
-      <c r="B303" s="2">
-        <v>145943</v>
+      <c r="B303">
+        <v>145943000</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>26724</v>
       </c>
-      <c r="B304" s="2">
-        <v>146230</v>
+      <c r="B304">
+        <v>146230000</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>26755</v>
       </c>
-      <c r="B305" s="2">
-        <v>146459</v>
+      <c r="B305">
+        <v>146459000</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>26785</v>
       </c>
-      <c r="B306" s="2">
-        <v>146719</v>
+      <c r="B306">
+        <v>146719000</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>26816</v>
       </c>
-      <c r="B307" s="2">
-        <v>146981</v>
+      <c r="B307">
+        <v>146981000</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>26846</v>
       </c>
-      <c r="B308" s="2">
-        <v>147233</v>
+      <c r="B308">
+        <v>147233000</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>26877</v>
       </c>
-      <c r="B309" s="2">
-        <v>147471</v>
+      <c r="B309">
+        <v>147471000</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>26908</v>
       </c>
-      <c r="B310" s="2">
-        <v>147731</v>
+      <c r="B310">
+        <v>147731000</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>26938</v>
       </c>
-      <c r="B311" s="2">
-        <v>147980</v>
+      <c r="B311">
+        <v>147980000</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>26969</v>
       </c>
-      <c r="B312" s="2">
-        <v>148219</v>
+      <c r="B312">
+        <v>148219000</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>26999</v>
       </c>
-      <c r="B313" s="2">
-        <v>148479</v>
+      <c r="B313">
+        <v>148479000</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>27030</v>
       </c>
-      <c r="B314" s="2">
-        <v>148753</v>
+      <c r="B314">
+        <v>148753000</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>27061</v>
       </c>
-      <c r="B315" s="2">
-        <v>148982</v>
+      <c r="B315">
+        <v>148982000</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>27089</v>
       </c>
-      <c r="B316" s="2">
-        <v>149225</v>
+      <c r="B316">
+        <v>149225000</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>27120</v>
       </c>
-      <c r="B317" s="2">
-        <v>149478</v>
+      <c r="B317">
+        <v>149478000</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>27150</v>
       </c>
-      <c r="B318" s="2">
-        <v>149750</v>
+      <c r="B318">
+        <v>149750000</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>27181</v>
       </c>
-      <c r="B319" s="2">
-        <v>150012</v>
+      <c r="B319">
+        <v>150012000</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>27211</v>
       </c>
-      <c r="B320" s="2">
-        <v>150248</v>
+      <c r="B320">
+        <v>150248000</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>27242</v>
       </c>
-      <c r="B321" s="2">
-        <v>150493</v>
+      <c r="B321">
+        <v>150493000</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>27273</v>
       </c>
-      <c r="B322" s="2">
-        <v>150753</v>
+      <c r="B322">
+        <v>150753000</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>27303</v>
       </c>
-      <c r="B323" s="2">
-        <v>151009</v>
+      <c r="B323">
+        <v>151009000</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>27334</v>
       </c>
-      <c r="B324" s="2">
-        <v>151256</v>
+      <c r="B324">
+        <v>151256000</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>27364</v>
       </c>
-      <c r="B325" s="2">
-        <v>151494</v>
+      <c r="B325">
+        <v>151494000</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>27395</v>
       </c>
-      <c r="B326" s="2">
-        <v>151755</v>
+      <c r="B326">
+        <v>151755000</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>27426</v>
       </c>
-      <c r="B327" s="2">
-        <v>151990</v>
+      <c r="B327">
+        <v>151990000</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>27454</v>
       </c>
-      <c r="B328" s="2">
-        <v>152217</v>
+      <c r="B328">
+        <v>152217000</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>27485</v>
       </c>
-      <c r="B329" s="2">
-        <v>152443</v>
+      <c r="B329">
+        <v>152443000</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>27515</v>
       </c>
-      <c r="B330" s="2">
-        <v>152704</v>
+      <c r="B330">
+        <v>152704000</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>27546</v>
       </c>
-      <c r="B331" s="2">
-        <v>152976</v>
+      <c r="B331">
+        <v>152976000</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>27576</v>
       </c>
-      <c r="B332" s="2">
-        <v>153309</v>
+      <c r="B332">
+        <v>153309000</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>27607</v>
       </c>
-      <c r="B333" s="2">
-        <v>153580</v>
+      <c r="B333">
+        <v>153580000</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>27638</v>
       </c>
-      <c r="B334" s="2">
-        <v>153848</v>
+      <c r="B334">
+        <v>153848000</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>27668</v>
       </c>
-      <c r="B335" s="2">
-        <v>154082</v>
+      <c r="B335">
+        <v>154082000</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>27699</v>
       </c>
-      <c r="B336" s="2">
-        <v>154338</v>
+      <c r="B336">
+        <v>154338000</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>27729</v>
       </c>
-      <c r="B337" s="2">
-        <v>154589</v>
+      <c r="B337">
+        <v>154589000</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>27760</v>
       </c>
-      <c r="B338" s="2">
-        <v>154853</v>
+      <c r="B338">
+        <v>154853000</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>27791</v>
       </c>
-      <c r="B339" s="2">
-        <v>155066</v>
+      <c r="B339">
+        <v>155066000</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>27820</v>
       </c>
-      <c r="B340" s="2">
-        <v>155306</v>
+      <c r="B340">
+        <v>155306000</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>27851</v>
       </c>
-      <c r="B341" s="2">
-        <v>155529</v>
+      <c r="B341">
+        <v>155529000</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>27881</v>
       </c>
-      <c r="B342" s="2">
-        <v>155765</v>
+      <c r="B342">
+        <v>155765000</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>27912</v>
       </c>
-      <c r="B343" s="2">
-        <v>156027</v>
+      <c r="B343">
+        <v>156027000</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>27942</v>
       </c>
-      <c r="B344" s="2">
-        <v>156276</v>
+      <c r="B344">
+        <v>156276000</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>27973</v>
       </c>
-      <c r="B345" s="2">
-        <v>156525</v>
+      <c r="B345">
+        <v>156525000</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>28004</v>
       </c>
-      <c r="B346" s="2">
-        <v>156779</v>
+      <c r="B346">
+        <v>156779000</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>28034</v>
       </c>
-      <c r="B347" s="2">
-        <v>156993</v>
+      <c r="B347">
+        <v>156993000</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>28065</v>
       </c>
-      <c r="B348" s="2">
-        <v>157235</v>
+      <c r="B348">
+        <v>157235000</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>28095</v>
       </c>
-      <c r="B349" s="2">
-        <v>157438</v>
+      <c r="B349">
+        <v>157438000</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>28126</v>
       </c>
-      <c r="B350" s="2">
-        <v>157688</v>
+      <c r="B350">
+        <v>157688000</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>28157</v>
       </c>
-      <c r="B351" s="2">
-        <v>157913</v>
+      <c r="B351">
+        <v>157913000</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>28185</v>
       </c>
-      <c r="B352" s="2">
-        <v>158131</v>
+      <c r="B352">
+        <v>158131000</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>28216</v>
       </c>
-      <c r="B353" s="2">
-        <v>158371</v>
+      <c r="B353">
+        <v>158371000</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>28246</v>
       </c>
-      <c r="B354" s="2">
-        <v>158657</v>
+      <c r="B354">
+        <v>158657000</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>28277</v>
       </c>
-      <c r="B355" s="2">
-        <v>158929</v>
+      <c r="B355">
+        <v>158929000</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>28307</v>
       </c>
-      <c r="B356" s="2">
-        <v>159185</v>
+      <c r="B356">
+        <v>159185000</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>28338</v>
       </c>
-      <c r="B357" s="2">
-        <v>159430</v>
+      <c r="B357">
+        <v>159430000</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>28369</v>
       </c>
-      <c r="B358" s="2">
-        <v>159674</v>
+      <c r="B358">
+        <v>159674000</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>28399</v>
       </c>
-      <c r="B359" s="2">
-        <v>159915</v>
+      <c r="B359">
+        <v>159915000</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>28430</v>
       </c>
-      <c r="B360" s="2">
-        <v>160129</v>
+      <c r="B360">
+        <v>160129000</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>28460</v>
       </c>
-      <c r="B361" s="2">
-        <v>160377</v>
+      <c r="B361">
+        <v>160377000</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>28491</v>
       </c>
-      <c r="B362" s="2">
-        <v>160617</v>
+      <c r="B362">
+        <v>160617000</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>28522</v>
       </c>
-      <c r="B363" s="2">
-        <v>160831</v>
+      <c r="B363">
+        <v>160831000</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>28550</v>
       </c>
-      <c r="B364" s="2">
-        <v>161038</v>
+      <c r="B364">
+        <v>161038000</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>28581</v>
       </c>
-      <c r="B365" s="2">
-        <v>161263</v>
+      <c r="B365">
+        <v>161263000</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>28611</v>
       </c>
-      <c r="B366" s="2">
-        <v>161518</v>
+      <c r="B366">
+        <v>161518000</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>28642</v>
       </c>
-      <c r="B367" s="2">
-        <v>161795</v>
+      <c r="B367">
+        <v>161795000</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>28672</v>
       </c>
-      <c r="B368" s="2">
-        <v>162034</v>
+      <c r="B368">
+        <v>162034000</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>28703</v>
       </c>
-      <c r="B369" s="2">
-        <v>162259</v>
+      <c r="B369">
+        <v>162259000</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>28734</v>
       </c>
-      <c r="B370" s="2">
-        <v>162502</v>
+      <c r="B370">
+        <v>162502000</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>28764</v>
       </c>
-      <c r="B371" s="2">
-        <v>162783</v>
+      <c r="B371">
+        <v>162783000</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>28795</v>
       </c>
-      <c r="B372" s="2">
-        <v>163017</v>
+      <c r="B372">
+        <v>163017000</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>28825</v>
       </c>
-      <c r="B373" s="2">
-        <v>163272</v>
+      <c r="B373">
+        <v>163272000</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>28856</v>
       </c>
-      <c r="B374" s="2">
-        <v>163516</v>
+      <c r="B374">
+        <v>163516000</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>28887</v>
       </c>
-      <c r="B375" s="2">
-        <v>163726</v>
+      <c r="B375">
+        <v>163726000</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>28915</v>
       </c>
-      <c r="B376" s="2">
-        <v>164027</v>
+      <c r="B376">
+        <v>164027000</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>28946</v>
       </c>
-      <c r="B377" s="2">
-        <v>164162</v>
+      <c r="B377">
+        <v>164162000</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>28976</v>
       </c>
-      <c r="B378" s="2">
-        <v>164459</v>
+      <c r="B378">
+        <v>164459000</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>29007</v>
       </c>
-      <c r="B379" s="2">
-        <v>164721</v>
+      <c r="B379">
+        <v>164721000</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>29037</v>
       </c>
-      <c r="B380" s="2">
-        <v>164970</v>
+      <c r="B380">
+        <v>164970000</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>29068</v>
       </c>
-      <c r="B381" s="2">
-        <v>165198</v>
+      <c r="B381">
+        <v>165198000</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>29099</v>
       </c>
-      <c r="B382" s="2">
-        <v>165431</v>
+      <c r="B382">
+        <v>165431000</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>29129</v>
       </c>
-      <c r="B383" s="2">
-        <v>165813</v>
+      <c r="B383">
+        <v>165813000</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>29160</v>
       </c>
-      <c r="B384" s="2">
-        <v>166051</v>
+      <c r="B384">
+        <v>166051000</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>29190</v>
       </c>
-      <c r="B385" s="2">
-        <v>166300</v>
+      <c r="B385">
+        <v>166300000</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>29221</v>
       </c>
-      <c r="B386" s="2">
-        <v>166544</v>
+      <c r="B386">
+        <v>166544000</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>29252</v>
       </c>
-      <c r="B387" s="2">
-        <v>166759</v>
+      <c r="B387">
+        <v>166759000</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>29281</v>
       </c>
-      <c r="B388" s="2">
-        <v>166984</v>
+      <c r="B388">
+        <v>166984000</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>29312</v>
       </c>
-      <c r="B389" s="2">
-        <v>167197</v>
+      <c r="B389">
+        <v>167197000</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>29342</v>
       </c>
-      <c r="B390" s="2">
-        <v>167407</v>
+      <c r="B390">
+        <v>167407000</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>29373</v>
       </c>
-      <c r="B391" s="2">
-        <v>167643</v>
+      <c r="B391">
+        <v>167643000</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>29403</v>
       </c>
-      <c r="B392" s="2">
-        <v>167932</v>
+      <c r="B392">
+        <v>167932000</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>29434</v>
       </c>
-      <c r="B393" s="2">
-        <v>168103</v>
+      <c r="B393">
+        <v>168103000</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>29465</v>
       </c>
-      <c r="B394" s="2">
-        <v>168297</v>
+      <c r="B394">
+        <v>168297000</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>29495</v>
       </c>
-      <c r="B395" s="2">
-        <v>168503</v>
+      <c r="B395">
+        <v>168503000</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>29526</v>
       </c>
-      <c r="B396" s="2">
-        <v>168695</v>
+      <c r="B396">
+        <v>168695000</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>29556</v>
       </c>
-      <c r="B397" s="2">
-        <v>168883</v>
+      <c r="B397">
+        <v>168883000</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>29587</v>
       </c>
-      <c r="B398" s="2">
-        <v>169104</v>
+      <c r="B398">
+        <v>169104000</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>29618</v>
       </c>
-      <c r="B399" s="2">
-        <v>169280</v>
+      <c r="B399">
+        <v>169280000</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>29646</v>
       </c>
-      <c r="B400" s="2">
-        <v>169453</v>
+      <c r="B400">
+        <v>169453000</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>29677</v>
       </c>
-      <c r="B401" s="2">
-        <v>169641</v>
+      <c r="B401">
+        <v>169641000</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>29707</v>
       </c>
-      <c r="B402" s="2">
-        <v>169829</v>
+      <c r="B402">
+        <v>169829000</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>29738</v>
       </c>
-      <c r="B403" s="2">
-        <v>170042</v>
+      <c r="B403">
+        <v>170042000</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>29768</v>
       </c>
-      <c r="B404" s="2">
-        <v>170246</v>
+      <c r="B404">
+        <v>170246000</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>29799</v>
       </c>
-      <c r="B405" s="2">
-        <v>170399</v>
+      <c r="B405">
+        <v>170399000</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>29830</v>
       </c>
-      <c r="B406" s="2">
-        <v>170593</v>
+      <c r="B406">
+        <v>170593000</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>29860</v>
       </c>
-      <c r="B407" s="2">
-        <v>170809</v>
+      <c r="B407">
+        <v>170809000</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>29891</v>
       </c>
-      <c r="B408" s="2">
-        <v>170996</v>
+      <c r="B408">
+        <v>170996000</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>29921</v>
       </c>
-      <c r="B409" s="2">
-        <v>171166</v>
+      <c r="B409">
+        <v>171166000</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>29952</v>
       </c>
-      <c r="B410" s="2">
-        <v>171335</v>
+      <c r="B410">
+        <v>171335000</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>29983</v>
       </c>
-      <c r="B411" s="2">
-        <v>171489</v>
+      <c r="B411">
+        <v>171489000</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>30011</v>
       </c>
-      <c r="B412" s="2">
-        <v>171667</v>
+      <c r="B412">
+        <v>171667000</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>30042</v>
       </c>
-      <c r="B413" s="2">
-        <v>171844</v>
+      <c r="B413">
+        <v>171844000</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>30072</v>
       </c>
-      <c r="B414" s="2">
-        <v>172026</v>
+      <c r="B414">
+        <v>172026000</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>30103</v>
       </c>
-      <c r="B415" s="2">
-        <v>172190</v>
+      <c r="B415">
+        <v>172190000</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>30133</v>
       </c>
-      <c r="B416" s="2">
-        <v>172364</v>
+      <c r="B416">
+        <v>172364000</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>30164</v>
       </c>
-      <c r="B417" s="2">
-        <v>172511</v>
+      <c r="B417">
+        <v>172511000</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>30195</v>
       </c>
-      <c r="B418" s="2">
-        <v>172690</v>
+      <c r="B418">
+        <v>172690000</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>30225</v>
       </c>
-      <c r="B419" s="2">
-        <v>172881</v>
+      <c r="B419">
+        <v>172881000</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>30256</v>
       </c>
-      <c r="B420" s="2">
-        <v>173058</v>
+      <c r="B420">
+        <v>173058000</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>30286</v>
       </c>
-      <c r="B421" s="2">
-        <v>173199</v>
+      <c r="B421">
+        <v>173199000</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>30317</v>
       </c>
-      <c r="B422" s="2">
-        <v>173354</v>
+      <c r="B422">
+        <v>173354000</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>30348</v>
       </c>
-      <c r="B423" s="2">
-        <v>173505</v>
+      <c r="B423">
+        <v>173505000</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>30376</v>
       </c>
-      <c r="B424" s="2">
-        <v>173656</v>
+      <c r="B424">
+        <v>173656000</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>30407</v>
       </c>
-      <c r="B425" s="2">
-        <v>173794</v>
+      <c r="B425">
+        <v>173794000</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>30437</v>
       </c>
-      <c r="B426" s="2">
-        <v>173953</v>
+      <c r="B426">
+        <v>173953000</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>30468</v>
       </c>
-      <c r="B427" s="2">
-        <v>174125</v>
+      <c r="B427">
+        <v>174125000</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>30498</v>
       </c>
-      <c r="B428" s="2">
-        <v>174306</v>
+      <c r="B428">
+        <v>174306000</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>30529</v>
       </c>
-      <c r="B429" s="2">
-        <v>174440</v>
+      <c r="B429">
+        <v>174440000</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>30560</v>
       </c>
-      <c r="B430" s="2">
-        <v>174602</v>
+      <c r="B430">
+        <v>174602000</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>30590</v>
       </c>
-      <c r="B431" s="2">
-        <v>174779</v>
+      <c r="B431">
+        <v>174779000</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>30621</v>
       </c>
-      <c r="B432" s="2">
-        <v>174951</v>
+      <c r="B432">
+        <v>174951000</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>30651</v>
       </c>
-      <c r="B433" s="2">
-        <v>175121</v>
+      <c r="B433">
+        <v>175121000</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>30682</v>
       </c>
-      <c r="B434" s="2">
-        <v>175533</v>
+      <c r="B434">
+        <v>175533000</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>30713</v>
       </c>
-      <c r="B435" s="2">
-        <v>175679</v>
+      <c r="B435">
+        <v>175679000</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>30742</v>
       </c>
-      <c r="B436" s="2">
-        <v>175824</v>
+      <c r="B436">
+        <v>175824000</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>30773</v>
       </c>
-      <c r="B437" s="2">
-        <v>175969</v>
+      <c r="B437">
+        <v>175969000</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>30803</v>
       </c>
-      <c r="B438" s="2">
-        <v>176123</v>
+      <c r="B438">
+        <v>176123000</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>30834</v>
       </c>
-      <c r="B439" s="2">
-        <v>176284</v>
+      <c r="B439">
+        <v>176284000</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>30864</v>
       </c>
-      <c r="B440" s="2">
-        <v>176440</v>
+      <c r="B440">
+        <v>176440000</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>30895</v>
       </c>
-      <c r="B441" s="2">
-        <v>176583</v>
+      <c r="B441">
+        <v>176583000</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>30926</v>
       </c>
-      <c r="B442" s="2">
-        <v>176763</v>
+      <c r="B442">
+        <v>176763000</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>30956</v>
       </c>
-      <c r="B443" s="2">
-        <v>176956</v>
+      <c r="B443">
+        <v>176956000</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>30987</v>
       </c>
-      <c r="B444" s="2">
-        <v>177135</v>
+      <c r="B444">
+        <v>177135000</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>31017</v>
       </c>
-      <c r="B445" s="2">
-        <v>177306</v>
+      <c r="B445">
+        <v>177306000</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>31048</v>
       </c>
-      <c r="B446" s="2">
-        <v>177384</v>
+      <c r="B446">
+        <v>177384000</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>31079</v>
       </c>
-      <c r="B447" s="2">
-        <v>177516</v>
+      <c r="B447">
+        <v>177516000</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>31107</v>
       </c>
-      <c r="B448" s="2">
-        <v>177667</v>
+      <c r="B448">
+        <v>177667000</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>31138</v>
       </c>
-      <c r="B449" s="2">
-        <v>177799</v>
+      <c r="B449">
+        <v>177799000</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>31168</v>
       </c>
-      <c r="B450" s="2">
-        <v>177944</v>
+      <c r="B450">
+        <v>177944000</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>31199</v>
       </c>
-      <c r="B451" s="2">
-        <v>178096</v>
+      <c r="B451">
+        <v>178096000</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>31229</v>
       </c>
-      <c r="B452" s="2">
-        <v>178263</v>
+      <c r="B452">
+        <v>178263000</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>31260</v>
       </c>
-      <c r="B453" s="2">
-        <v>178405</v>
+      <c r="B453">
+        <v>178405000</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>31291</v>
       </c>
-      <c r="B454" s="2">
-        <v>178572</v>
+      <c r="B454">
+        <v>178572000</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>31321</v>
       </c>
-      <c r="B455" s="2">
-        <v>178770</v>
+      <c r="B455">
+        <v>178770000</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>31352</v>
       </c>
-      <c r="B456" s="2">
-        <v>178940</v>
+      <c r="B456">
+        <v>178940000</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>31382</v>
       </c>
-      <c r="B457" s="2">
-        <v>179112</v>
+      <c r="B457">
+        <v>179112000</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>31413</v>
       </c>
-      <c r="B458" s="2">
-        <v>179670</v>
+      <c r="B458">
+        <v>179670000</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>31444</v>
       </c>
-      <c r="B459" s="2">
-        <v>179821</v>
+      <c r="B459">
+        <v>179821000</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>31472</v>
       </c>
-      <c r="B460" s="2">
-        <v>179985</v>
+      <c r="B460">
+        <v>179985000</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>31503</v>
       </c>
-      <c r="B461" s="2">
-        <v>180148</v>
+      <c r="B461">
+        <v>180148000</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>31533</v>
       </c>
-      <c r="B462" s="2">
-        <v>180311</v>
+      <c r="B462">
+        <v>180311000</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>31564</v>
       </c>
-      <c r="B463" s="2">
-        <v>180503</v>
+      <c r="B463">
+        <v>180503000</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>31594</v>
       </c>
-      <c r="B464" s="2">
-        <v>180682</v>
+      <c r="B464">
+        <v>180682000</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>31625</v>
       </c>
-      <c r="B465" s="2">
-        <v>180828</v>
+      <c r="B465">
+        <v>180828000</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>31656</v>
       </c>
-      <c r="B466" s="2">
-        <v>180997</v>
+      <c r="B466">
+        <v>180997000</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>31686</v>
       </c>
-      <c r="B467" s="2">
-        <v>181186</v>
+      <c r="B467">
+        <v>181186000</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>31717</v>
       </c>
-      <c r="B468" s="2">
-        <v>181363</v>
+      <c r="B468">
+        <v>181363000</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>31747</v>
       </c>
-      <c r="B469" s="2">
-        <v>181547</v>
+      <c r="B469">
+        <v>181547000</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>31778</v>
       </c>
-      <c r="B470" s="2">
-        <v>181827</v>
+      <c r="B470">
+        <v>181827000</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>31809</v>
       </c>
-      <c r="B471" s="2">
-        <v>181998</v>
+      <c r="B471">
+        <v>181998000</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>31837</v>
       </c>
-      <c r="B472" s="2">
-        <v>182179</v>
+      <c r="B472">
+        <v>182179000</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>31868</v>
       </c>
-      <c r="B473" s="2">
-        <v>182344</v>
+      <c r="B473">
+        <v>182344000</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>31898</v>
       </c>
-      <c r="B474" s="2">
-        <v>182533</v>
+      <c r="B474">
+        <v>182533000</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>31929</v>
       </c>
-      <c r="B475" s="2">
-        <v>182703</v>
+      <c r="B475">
+        <v>182703000</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>31959</v>
       </c>
-      <c r="B476" s="2">
-        <v>182885</v>
+      <c r="B476">
+        <v>182885000</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>31990</v>
       </c>
-      <c r="B477" s="2">
-        <v>183002</v>
+      <c r="B477">
+        <v>183002000</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>32021</v>
       </c>
-      <c r="B478" s="2">
-        <v>183161</v>
+      <c r="B478">
+        <v>183161000</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>32051</v>
       </c>
-      <c r="B479" s="2">
-        <v>183311</v>
+      <c r="B479">
+        <v>183311000</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>32082</v>
       </c>
-      <c r="B480" s="2">
-        <v>183470</v>
+      <c r="B480">
+        <v>183470000</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>32112</v>
       </c>
-      <c r="B481" s="2">
-        <v>183620</v>
+      <c r="B481">
+        <v>183620000</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>32143</v>
       </c>
-      <c r="B482" s="2">
-        <v>183822</v>
+      <c r="B482">
+        <v>183822000</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>32174</v>
       </c>
-      <c r="B483" s="2">
-        <v>183969</v>
+      <c r="B483">
+        <v>183969000</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>32203</v>
       </c>
-      <c r="B484" s="2">
-        <v>184111</v>
+      <c r="B484">
+        <v>184111000</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>32234</v>
       </c>
-      <c r="B485" s="2">
-        <v>184232</v>
+      <c r="B485">
+        <v>184232000</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>32264</v>
       </c>
-      <c r="B486" s="2">
-        <v>184374</v>
+      <c r="B486">
+        <v>184374000</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>32295</v>
       </c>
-      <c r="B487" s="2">
-        <v>184562</v>
+      <c r="B487">
+        <v>184562000</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>32325</v>
       </c>
-      <c r="B488" s="2">
-        <v>184729</v>
+      <c r="B488">
+        <v>184729000</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>32356</v>
       </c>
-      <c r="B489" s="2">
-        <v>184830</v>
+      <c r="B489">
+        <v>184830000</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>32387</v>
       </c>
-      <c r="B490" s="2">
-        <v>184962</v>
+      <c r="B490">
+        <v>184962000</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>32417</v>
       </c>
-      <c r="B491" s="2">
-        <v>185114</v>
+      <c r="B491">
+        <v>185114000</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>32448</v>
       </c>
-      <c r="B492" s="2">
-        <v>185244</v>
+      <c r="B492">
+        <v>185244000</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>32478</v>
       </c>
-      <c r="B493" s="2">
-        <v>185402</v>
+      <c r="B493">
+        <v>185402000</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>32509</v>
       </c>
-      <c r="B494" s="2">
-        <v>185644</v>
+      <c r="B494">
+        <v>185644000</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>32540</v>
       </c>
-      <c r="B495" s="2">
-        <v>185777</v>
+      <c r="B495">
+        <v>185777000</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>32568</v>
       </c>
-      <c r="B496" s="2">
-        <v>185897</v>
+      <c r="B496">
+        <v>185897000</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>32599</v>
       </c>
-      <c r="B497" s="2">
-        <v>186024</v>
+      <c r="B497">
+        <v>186024000</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>32629</v>
       </c>
-      <c r="B498" s="2">
-        <v>186181</v>
+      <c r="B498">
+        <v>186181000</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>32660</v>
       </c>
-      <c r="B499" s="2">
-        <v>186329</v>
+      <c r="B499">
+        <v>186329000</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>32690</v>
       </c>
-      <c r="B500" s="2">
-        <v>186483</v>
+      <c r="B500">
+        <v>186483000</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>32721</v>
       </c>
-      <c r="B501" s="2">
-        <v>186598</v>
+      <c r="B501">
+        <v>186598000</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>32752</v>
       </c>
-      <c r="B502" s="2">
-        <v>186726</v>
+      <c r="B502">
+        <v>186726000</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>32782</v>
       </c>
-      <c r="B503" s="2">
-        <v>186871</v>
+      <c r="B503">
+        <v>186871000</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>32813</v>
       </c>
-      <c r="B504" s="2">
-        <v>187017</v>
+      <c r="B504">
+        <v>187017000</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>32843</v>
       </c>
-      <c r="B505" s="2">
-        <v>187165</v>
+      <c r="B505">
+        <v>187165000</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>32874</v>
       </c>
-      <c r="B506" s="2">
-        <v>188413</v>
+      <c r="B506">
+        <v>188413000</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>32905</v>
       </c>
-      <c r="B507" s="2">
-        <v>188516</v>
+      <c r="B507">
+        <v>188516000</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>32933</v>
       </c>
-      <c r="B508" s="2">
-        <v>188630</v>
+      <c r="B508">
+        <v>188630000</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>32964</v>
       </c>
-      <c r="B509" s="2">
-        <v>188778</v>
+      <c r="B509">
+        <v>188778000</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>32994</v>
       </c>
-      <c r="B510" s="2">
-        <v>188913</v>
+      <c r="B510">
+        <v>188913000</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>33025</v>
       </c>
-      <c r="B511" s="2">
-        <v>189058</v>
+      <c r="B511">
+        <v>189058000</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>33055</v>
       </c>
-      <c r="B512" s="2">
-        <v>189188</v>
+      <c r="B512">
+        <v>189188000</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>33086</v>
       </c>
-      <c r="B513" s="2">
-        <v>189342</v>
+      <c r="B513">
+        <v>189342000</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>33117</v>
       </c>
-      <c r="B514" s="2">
-        <v>189528</v>
+      <c r="B514">
+        <v>189528000</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>33147</v>
       </c>
-      <c r="B515" s="2">
-        <v>189710</v>
+      <c r="B515">
+        <v>189710000</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>33178</v>
       </c>
-      <c r="B516" s="2">
-        <v>189872</v>
+      <c r="B516">
+        <v>189872000</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>33208</v>
       </c>
-      <c r="B517" s="2">
-        <v>190017</v>
+      <c r="B517">
+        <v>190017000</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>33239</v>
       </c>
-      <c r="B518" s="2">
-        <v>190163</v>
+      <c r="B518">
+        <v>190163000</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>33270</v>
       </c>
-      <c r="B519" s="2">
-        <v>190271</v>
+      <c r="B519">
+        <v>190271000</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>33298</v>
       </c>
-      <c r="B520" s="2">
-        <v>190381</v>
+      <c r="B520">
+        <v>190381000</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>33329</v>
       </c>
-      <c r="B521" s="2">
-        <v>190517</v>
+      <c r="B521">
+        <v>190517000</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>33359</v>
       </c>
-      <c r="B522" s="2">
-        <v>190650</v>
+      <c r="B522">
+        <v>190650000</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>33390</v>
       </c>
-      <c r="B523" s="2">
-        <v>190800</v>
+      <c r="B523">
+        <v>190800000</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>33420</v>
       </c>
-      <c r="B524" s="2">
-        <v>190946</v>
+      <c r="B524">
+        <v>190946000</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>33451</v>
       </c>
-      <c r="B525" s="2">
-        <v>191116</v>
+      <c r="B525">
+        <v>191116000</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>33482</v>
       </c>
-      <c r="B526" s="2">
-        <v>191302</v>
+      <c r="B526">
+        <v>191302000</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>33512</v>
       </c>
-      <c r="B527" s="2">
-        <v>191497</v>
+      <c r="B527">
+        <v>191497000</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>33543</v>
       </c>
-      <c r="B528" s="2">
-        <v>191657</v>
+      <c r="B528">
+        <v>191657000</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>33573</v>
       </c>
-      <c r="B529" s="2">
-        <v>191798</v>
+      <c r="B529">
+        <v>191798000</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>33604</v>
       </c>
-      <c r="B530" s="2">
-        <v>191953</v>
+      <c r="B530">
+        <v>191953000</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>33635</v>
       </c>
-      <c r="B531" s="2">
-        <v>192067</v>
+      <c r="B531">
+        <v>192067000</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>33664</v>
       </c>
-      <c r="B532" s="2">
-        <v>192204</v>
+      <c r="B532">
+        <v>192204000</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>33695</v>
       </c>
-      <c r="B533" s="2">
-        <v>192354</v>
+      <c r="B533">
+        <v>192354000</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>33725</v>
       </c>
-      <c r="B534" s="2">
-        <v>192503</v>
+      <c r="B534">
+        <v>192503000</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>33756</v>
       </c>
-      <c r="B535" s="2">
-        <v>192663</v>
+      <c r="B535">
+        <v>192663000</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>33786</v>
       </c>
-      <c r="B536" s="2">
-        <v>192826</v>
+      <c r="B536">
+        <v>192826000</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>33817</v>
       </c>
-      <c r="B537" s="2">
-        <v>193018</v>
+      <c r="B537">
+        <v>193018000</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>33848</v>
       </c>
-      <c r="B538" s="2">
-        <v>193229</v>
+      <c r="B538">
+        <v>193229000</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>33878</v>
       </c>
-      <c r="B539" s="2">
-        <v>193442</v>
+      <c r="B539">
+        <v>193442000</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>33909</v>
       </c>
-      <c r="B540" s="2">
-        <v>193621</v>
+      <c r="B540">
+        <v>193621000</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>33939</v>
       </c>
-      <c r="B541" s="2">
-        <v>193784</v>
+      <c r="B541">
+        <v>193784000</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>33970</v>
       </c>
-      <c r="B542" s="2">
-        <v>193962</v>
+      <c r="B542">
+        <v>193962000</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>34001</v>
       </c>
-      <c r="B543" s="2">
-        <v>194108</v>
+      <c r="B543">
+        <v>194108000</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>34029</v>
       </c>
-      <c r="B544" s="2">
-        <v>194248</v>
+      <c r="B544">
+        <v>194248000</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>34060</v>
       </c>
-      <c r="B545" s="2">
-        <v>194398</v>
+      <c r="B545">
+        <v>194398000</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>34090</v>
       </c>
-      <c r="B546" s="2">
-        <v>194549</v>
+      <c r="B546">
+        <v>194549000</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>34121</v>
       </c>
-      <c r="B547" s="2">
-        <v>194719</v>
+      <c r="B547">
+        <v>194719000</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>34151</v>
       </c>
-      <c r="B548" s="2">
-        <v>194882</v>
+      <c r="B548">
+        <v>194882000</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>34182</v>
       </c>
-      <c r="B549" s="2">
-        <v>195063</v>
+      <c r="B549">
+        <v>195063000</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>34213</v>
       </c>
-      <c r="B550" s="2">
-        <v>195259</v>
+      <c r="B550">
+        <v>195259000</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>34243</v>
       </c>
-      <c r="B551" s="2">
-        <v>195444</v>
+      <c r="B551">
+        <v>195444000</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>34274</v>
       </c>
-      <c r="B552" s="2">
-        <v>195625</v>
+      <c r="B552">
+        <v>195625000</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>34304</v>
       </c>
-      <c r="B553" s="2">
-        <v>195794</v>
+      <c r="B553">
+        <v>195794000</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>34335</v>
       </c>
-      <c r="B554" s="2">
-        <v>195953</v>
+      <c r="B554">
+        <v>195953000</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>34366</v>
       </c>
-      <c r="B555" s="2">
-        <v>196090</v>
+      <c r="B555">
+        <v>196090000</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>34394</v>
       </c>
-      <c r="B556" s="2">
-        <v>196213</v>
+      <c r="B556">
+        <v>196213000</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>34425</v>
       </c>
-      <c r="B557" s="2">
-        <v>196363</v>
+      <c r="B557">
+        <v>196363000</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>34455</v>
       </c>
-      <c r="B558" s="2">
-        <v>196510</v>
+      <c r="B558">
+        <v>196510000</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>34486</v>
       </c>
-      <c r="B559" s="2">
-        <v>196693</v>
+      <c r="B559">
+        <v>196693000</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>34516</v>
       </c>
-      <c r="B560" s="2">
-        <v>196859</v>
+      <c r="B560">
+        <v>196859000</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>34547</v>
       </c>
-      <c r="B561" s="2">
-        <v>197043</v>
+      <c r="B561">
+        <v>197043000</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>34578</v>
       </c>
-      <c r="B562" s="2">
-        <v>197248</v>
+      <c r="B562">
+        <v>197248000</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>34608</v>
       </c>
-      <c r="B563" s="2">
-        <v>197430</v>
+      <c r="B563">
+        <v>197430000</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>34639</v>
       </c>
-      <c r="B564" s="2">
-        <v>197607</v>
+      <c r="B564">
+        <v>197607000</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>34669</v>
       </c>
-      <c r="B565" s="2">
-        <v>197765</v>
+      <c r="B565">
+        <v>197765000</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>34700</v>
       </c>
-      <c r="B566" s="2">
-        <v>197753</v>
+      <c r="B566">
+        <v>197753000</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>34731</v>
       </c>
-      <c r="B567" s="2">
-        <v>197886</v>
+      <c r="B567">
+        <v>197886000</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>34759</v>
       </c>
-      <c r="B568" s="2">
-        <v>198007</v>
+      <c r="B568">
+        <v>198007000</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>34790</v>
       </c>
-      <c r="B569" s="2">
-        <v>198148</v>
+      <c r="B569">
+        <v>198148000</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>34820</v>
       </c>
-      <c r="B570" s="2">
-        <v>198286</v>
+      <c r="B570">
+        <v>198286000</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>34851</v>
       </c>
-      <c r="B571" s="2">
-        <v>198453</v>
+      <c r="B571">
+        <v>198453000</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>34881</v>
       </c>
-      <c r="B572" s="2">
-        <v>198615</v>
+      <c r="B572">
+        <v>198615000</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>34912</v>
       </c>
-      <c r="B573" s="2">
-        <v>198801</v>
+      <c r="B573">
+        <v>198801000</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>34943</v>
       </c>
-      <c r="B574" s="2">
-        <v>199005</v>
+      <c r="B574">
+        <v>199005000</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>34973</v>
       </c>
-      <c r="B575" s="2">
-        <v>199192</v>
+      <c r="B575">
+        <v>199192000</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>35004</v>
       </c>
-      <c r="B576" s="2">
-        <v>199355</v>
+      <c r="B576">
+        <v>199355000</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>35034</v>
       </c>
-      <c r="B577" s="2">
-        <v>199508</v>
+      <c r="B577">
+        <v>199508000</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>35065</v>
       </c>
-      <c r="B578" s="2">
-        <v>199634</v>
+      <c r="B578">
+        <v>199634000</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>35096</v>
       </c>
-      <c r="B579" s="2">
-        <v>199773</v>
+      <c r="B579">
+        <v>199773000</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>35125</v>
       </c>
-      <c r="B580" s="2">
-        <v>199921</v>
+      <c r="B580">
+        <v>199921000</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>35156</v>
       </c>
-      <c r="B581" s="2">
-        <v>200101</v>
+      <c r="B581">
+        <v>200101000</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>35186</v>
       </c>
-      <c r="B582" s="2">
-        <v>200278</v>
+      <c r="B582">
+        <v>200278000</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>35217</v>
       </c>
-      <c r="B583" s="2">
-        <v>200459</v>
+      <c r="B583">
+        <v>200459000</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>35247</v>
       </c>
-      <c r="B584" s="2">
-        <v>200641</v>
+      <c r="B584">
+        <v>200641000</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>35278</v>
       </c>
-      <c r="B585" s="2">
-        <v>200847</v>
+      <c r="B585">
+        <v>200847000</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>35309</v>
       </c>
-      <c r="B586" s="2">
-        <v>201061</v>
+      <c r="B586">
+        <v>201061000</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>35339</v>
       </c>
-      <c r="B587" s="2">
-        <v>201273</v>
+      <c r="B587">
+        <v>201273000</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>35370</v>
       </c>
-      <c r="B588" s="2">
-        <v>201463</v>
+      <c r="B588">
+        <v>201463000</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>35400</v>
       </c>
-      <c r="B589" s="2">
-        <v>201636</v>
+      <c r="B589">
+        <v>201636000</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>35431</v>
       </c>
-      <c r="B590" s="2">
-        <v>202285</v>
+      <c r="B590">
+        <v>202285000</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>35462</v>
       </c>
-      <c r="B591" s="2">
-        <v>202389</v>
+      <c r="B591">
+        <v>202389000</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>35490</v>
       </c>
-      <c r="B592" s="2">
-        <v>202513</v>
+      <c r="B592">
+        <v>202513000</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>35521</v>
       </c>
-      <c r="B593" s="2">
-        <v>202674</v>
+      <c r="B593">
+        <v>202674000</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>35551</v>
       </c>
-      <c r="B594" s="2">
-        <v>202832</v>
+      <c r="B594">
+        <v>202832000</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>35582</v>
       </c>
-      <c r="B595" s="2">
-        <v>203000</v>
+      <c r="B595">
+        <v>203000000</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>35612</v>
       </c>
-      <c r="B596" s="2">
-        <v>203166</v>
+      <c r="B596">
+        <v>203166000</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>35643</v>
       </c>
-      <c r="B597" s="2">
-        <v>203364</v>
+      <c r="B597">
+        <v>203364000</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>35674</v>
       </c>
-      <c r="B598" s="2">
-        <v>203570</v>
+      <c r="B598">
+        <v>203570000</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>35704</v>
       </c>
-      <c r="B599" s="2">
-        <v>203767</v>
+      <c r="B599">
+        <v>203767000</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>35735</v>
       </c>
-      <c r="B600" s="2">
-        <v>203941</v>
+      <c r="B600">
+        <v>203941000</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>35765</v>
       </c>
-      <c r="B601" s="2">
-        <v>204098</v>
+      <c r="B601">
+        <v>204098000</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>35796</v>
       </c>
-      <c r="B602" s="2">
-        <v>204238</v>
+      <c r="B602">
+        <v>204238000</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>35827</v>
       </c>
-      <c r="B603" s="2">
-        <v>204400</v>
+      <c r="B603">
+        <v>204400000</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>35855</v>
       </c>
-      <c r="B604" s="2">
-        <v>204547</v>
+      <c r="B604">
+        <v>204547000</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>35886</v>
       </c>
-      <c r="B605" s="2">
-        <v>204731</v>
+      <c r="B605">
+        <v>204731000</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>35916</v>
       </c>
-      <c r="B606" s="2">
-        <v>204899</v>
+      <c r="B606">
+        <v>204899000</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>35947</v>
       </c>
-      <c r="B607" s="2">
-        <v>205085</v>
+      <c r="B607">
+        <v>205085000</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>35977</v>
       </c>
-      <c r="B608" s="2">
-        <v>205270</v>
+      <c r="B608">
+        <v>205270000</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>36008</v>
       </c>
-      <c r="B609" s="2">
-        <v>205479</v>
+      <c r="B609">
+        <v>205479000</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>36039</v>
       </c>
-      <c r="B610" s="2">
-        <v>205699</v>
+      <c r="B610">
+        <v>205699000</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>36069</v>
       </c>
-      <c r="B611" s="2">
-        <v>205919</v>
+      <c r="B611">
+        <v>205919000</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>36100</v>
       </c>
-      <c r="B612" s="2">
-        <v>206104</v>
+      <c r="B612">
+        <v>206104000</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>36130</v>
       </c>
-      <c r="B613" s="2">
-        <v>206270</v>
+      <c r="B613">
+        <v>206270000</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>36161</v>
       </c>
-      <c r="B614" s="2">
-        <v>206719</v>
+      <c r="B614">
+        <v>206719000</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>36192</v>
       </c>
-      <c r="B615" s="2">
-        <v>206873</v>
+      <c r="B615">
+        <v>206873000</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>36220</v>
       </c>
-      <c r="B616" s="2">
-        <v>207036</v>
+      <c r="B616">
+        <v>207036000</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>36251</v>
       </c>
-      <c r="B617" s="2">
-        <v>207236</v>
+      <c r="B617">
+        <v>207236000</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>36281</v>
       </c>
-      <c r="B618" s="2">
-        <v>207427</v>
+      <c r="B618">
+        <v>207427000</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>36312</v>
       </c>
-      <c r="B619" s="2">
-        <v>207632</v>
+      <c r="B619">
+        <v>207632000</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>36342</v>
       </c>
-      <c r="B620" s="2">
-        <v>207828</v>
+      <c r="B620">
+        <v>207828000</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>36373</v>
       </c>
-      <c r="B621" s="2">
-        <v>208038</v>
+      <c r="B621">
+        <v>208038000</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>36404</v>
       </c>
-      <c r="B622" s="2">
-        <v>208265</v>
+      <c r="B622">
+        <v>208265000</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>36434</v>
       </c>
-      <c r="B623" s="2">
-        <v>208483</v>
+      <c r="B623">
+        <v>208483000</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>36465</v>
       </c>
-      <c r="B624" s="2">
-        <v>208666</v>
+      <c r="B624">
+        <v>208666000</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>36495</v>
       </c>
-      <c r="B625" s="2">
-        <v>208832</v>
+      <c r="B625">
+        <v>208832000</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>36526</v>
       </c>
-      <c r="B626" s="2">
-        <v>211410</v>
+      <c r="B626">
+        <v>211410000</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>36557</v>
       </c>
-      <c r="B627" s="2">
-        <v>211576</v>
+      <c r="B627">
+        <v>211576000</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>36586</v>
       </c>
-      <c r="B628" s="2">
-        <v>211772</v>
+      <c r="B628">
+        <v>211772000</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>36617</v>
       </c>
-      <c r="B629" s="2">
-        <v>212018</v>
+      <c r="B629">
+        <v>212018000</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>36647</v>
       </c>
-      <c r="B630" s="2">
-        <v>212242</v>
+      <c r="B630">
+        <v>212242000</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>36678</v>
       </c>
-      <c r="B631" s="2">
-        <v>212466</v>
+      <c r="B631">
+        <v>212466000</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>36708</v>
       </c>
-      <c r="B632" s="2">
-        <v>212677</v>
+      <c r="B632">
+        <v>212677000</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>36739</v>
       </c>
-      <c r="B633" s="2">
-        <v>212916</v>
+      <c r="B633">
+        <v>212916000</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>36770</v>
       </c>
-      <c r="B634" s="2">
-        <v>213163</v>
+      <c r="B634">
+        <v>213163000</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>36800</v>
       </c>
-      <c r="B635" s="2">
-        <v>213405</v>
+      <c r="B635">
+        <v>213405000</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>36831</v>
       </c>
-      <c r="B636" s="2">
-        <v>213540</v>
+      <c r="B636">
+        <v>213540000</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>36861</v>
       </c>
-      <c r="B637" s="2">
-        <v>213736</v>
+      <c r="B637">
+        <v>213736000</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>36892</v>
       </c>
-      <c r="B638" s="2">
-        <v>213888</v>
+      <c r="B638">
+        <v>213888000</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>36923</v>
       </c>
-      <c r="B639" s="2">
-        <v>214110</v>
+      <c r="B639">
+        <v>214110000</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>36951</v>
       </c>
-      <c r="B640" s="2">
-        <v>214305</v>
+      <c r="B640">
+        <v>214305000</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>36982</v>
       </c>
-      <c r="B641" s="2">
-        <v>214525</v>
+      <c r="B641">
+        <v>214525000</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>37012</v>
       </c>
-      <c r="B642" s="2">
-        <v>214732</v>
+      <c r="B642">
+        <v>214732000</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>37043</v>
       </c>
-      <c r="B643" s="2">
-        <v>214950</v>
+      <c r="B643">
+        <v>214950000</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>37073</v>
       </c>
-      <c r="B644" s="2">
-        <v>215180</v>
+      <c r="B644">
+        <v>215180000</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>37104</v>
       </c>
-      <c r="B645" s="2">
-        <v>215420</v>
+      <c r="B645">
+        <v>215420000</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>37135</v>
       </c>
-      <c r="B646" s="2">
-        <v>215665</v>
+      <c r="B646">
+        <v>215665000</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>37165</v>
       </c>
-      <c r="B647" s="2">
-        <v>215903</v>
+      <c r="B647">
+        <v>215903000</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>37196</v>
       </c>
-      <c r="B648" s="2">
-        <v>216117</v>
+      <c r="B648">
+        <v>216117000</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>37226</v>
       </c>
-      <c r="B649" s="2">
-        <v>216315</v>
+      <c r="B649">
+        <v>216315000</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>37257</v>
       </c>
-      <c r="B650" s="2">
-        <v>216506</v>
+      <c r="B650">
+        <v>216506000</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>37288</v>
       </c>
-      <c r="B651" s="2">
-        <v>216663</v>
+      <c r="B651">
+        <v>216663000</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>37316</v>
       </c>
-      <c r="B652" s="2">
-        <v>216823</v>
+      <c r="B652">
+        <v>216823000</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>37347</v>
       </c>
-      <c r="B653" s="2">
-        <v>217006</v>
+      <c r="B653">
+        <v>217006000</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>37377</v>
       </c>
-      <c r="B654" s="2">
-        <v>217198</v>
+      <c r="B654">
+        <v>217198000</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>37408</v>
       </c>
-      <c r="B655" s="2">
-        <v>217407</v>
+      <c r="B655">
+        <v>217407000</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>37438</v>
       </c>
-      <c r="B656" s="2">
-        <v>217630</v>
+      <c r="B656">
+        <v>217630000</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>37469</v>
       </c>
-      <c r="B657" s="2">
-        <v>217866</v>
+      <c r="B657">
+        <v>217866000</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>37500</v>
       </c>
-      <c r="B658" s="2">
-        <v>218107</v>
+      <c r="B658">
+        <v>218107000</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>37530</v>
       </c>
-      <c r="B659" s="2">
-        <v>218340</v>
+      <c r="B659">
+        <v>218340000</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>37561</v>
       </c>
-      <c r="B660" s="2">
-        <v>218548</v>
+      <c r="B660">
+        <v>218548000</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>37591</v>
       </c>
-      <c r="B661" s="2">
-        <v>218741</v>
+      <c r="B661">
+        <v>218741000</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>37622</v>
       </c>
-      <c r="B662" s="2">
-        <v>219897</v>
+      <c r="B662">
+        <v>219897000</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>37653</v>
       </c>
-      <c r="B663" s="2">
-        <v>220114</v>
+      <c r="B663">
+        <v>220114000</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>37681</v>
       </c>
-      <c r="B664" s="2">
-        <v>220317</v>
+      <c r="B664">
+        <v>220317000</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>37712</v>
       </c>
-      <c r="B665" s="2">
-        <v>220540</v>
+      <c r="B665">
+        <v>220540000</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>37742</v>
       </c>
-      <c r="B666" s="2">
-        <v>220768</v>
+      <c r="B666">
+        <v>220768000</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>37773</v>
       </c>
-      <c r="B667" s="2">
-        <v>221014</v>
+      <c r="B667">
+        <v>221014000</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>37803</v>
       </c>
-      <c r="B668" s="2">
-        <v>221252</v>
+      <c r="B668">
+        <v>221252000</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>37834</v>
       </c>
-      <c r="B669" s="2">
-        <v>221507</v>
+      <c r="B669">
+        <v>221507000</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>37865</v>
       </c>
-      <c r="B670" s="2">
-        <v>221779</v>
+      <c r="B670">
+        <v>221779000</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>37895</v>
       </c>
-      <c r="B671" s="2">
-        <v>222039</v>
+      <c r="B671">
+        <v>222039000</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>37926</v>
       </c>
-      <c r="B672" s="2">
-        <v>222279</v>
+      <c r="B672">
+        <v>222279000</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>37956</v>
       </c>
-      <c r="B673" s="2">
-        <v>222509</v>
+      <c r="B673">
+        <v>222509000</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>37987</v>
       </c>
-      <c r="B674" s="2">
-        <v>222161</v>
+      <c r="B674">
+        <v>222161000</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>38018</v>
       </c>
-      <c r="B675" s="2">
-        <v>222357</v>
+      <c r="B675">
+        <v>222357000</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>38047</v>
       </c>
-      <c r="B676" s="2">
-        <v>222550</v>
+      <c r="B676">
+        <v>222550000</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>38078</v>
       </c>
-      <c r="B677" s="2">
-        <v>222757</v>
+      <c r="B677">
+        <v>222757000</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>38108</v>
       </c>
-      <c r="B678" s="2">
-        <v>222967</v>
+      <c r="B678">
+        <v>222967000</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>38139</v>
       </c>
-      <c r="B679" s="2">
-        <v>223196</v>
+      <c r="B679">
+        <v>223196000</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>38169</v>
       </c>
-      <c r="B680" s="2">
-        <v>223422</v>
+      <c r="B680">
+        <v>223422000</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>38200</v>
       </c>
-      <c r="B681" s="2">
-        <v>223677</v>
+      <c r="B681">
+        <v>223677000</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>38231</v>
       </c>
-      <c r="B682" s="2">
-        <v>223941</v>
+      <c r="B682">
+        <v>223941000</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>38261</v>
       </c>
-      <c r="B683" s="2">
-        <v>224192</v>
+      <c r="B683">
+        <v>224192000</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>38292</v>
       </c>
-      <c r="B684" s="2">
-        <v>224422</v>
+      <c r="B684">
+        <v>224422000</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>38322</v>
       </c>
-      <c r="B685" s="2">
-        <v>224640</v>
+      <c r="B685">
+        <v>224640000</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>38353</v>
       </c>
-      <c r="B686" s="2">
-        <v>224837</v>
+      <c r="B686">
+        <v>224837000</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>38384</v>
       </c>
-      <c r="B687" s="2">
-        <v>225041</v>
+      <c r="B687">
+        <v>225041000</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>38412</v>
       </c>
-      <c r="B688" s="2">
-        <v>225236</v>
+      <c r="B688">
+        <v>225236000</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>38443</v>
       </c>
-      <c r="B689" s="2">
-        <v>225441</v>
+      <c r="B689">
+        <v>225441000</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>38473</v>
       </c>
-      <c r="B690" s="2">
-        <v>225670</v>
+      <c r="B690">
+        <v>225670000</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>38504</v>
       </c>
-      <c r="B691" s="2">
-        <v>225911</v>
+      <c r="B691">
+        <v>225911000</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>38534</v>
       </c>
-      <c r="B692" s="2">
-        <v>226153</v>
+      <c r="B692">
+        <v>226153000</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>38565</v>
       </c>
-      <c r="B693" s="2">
-        <v>226421</v>
+      <c r="B693">
+        <v>226421000</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>38596</v>
       </c>
-      <c r="B694" s="2">
-        <v>226693</v>
+      <c r="B694">
+        <v>226693000</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>38626</v>
       </c>
-      <c r="B695" s="2">
-        <v>226959</v>
+      <c r="B695">
+        <v>226959000</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>38657</v>
       </c>
-      <c r="B696" s="2">
-        <v>227204</v>
+      <c r="B696">
+        <v>227204000</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>38687</v>
       </c>
-      <c r="B697" s="2">
-        <v>227425</v>
+      <c r="B697">
+        <v>227425000</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>38718</v>
       </c>
-      <c r="B698" s="2">
-        <v>227553</v>
+      <c r="B698">
+        <v>227553000</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>38749</v>
       </c>
-      <c r="B699" s="2">
-        <v>227763</v>
+      <c r="B699">
+        <v>227763000</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>38777</v>
       </c>
-      <c r="B700" s="2">
-        <v>227975</v>
+      <c r="B700">
+        <v>227975000</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>38808</v>
       </c>
-      <c r="B701" s="2">
-        <v>228199</v>
+      <c r="B701">
+        <v>228199000</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>38838</v>
       </c>
-      <c r="B702" s="2">
-        <v>228428</v>
+      <c r="B702">
+        <v>228428000</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>38869</v>
       </c>
-      <c r="B703" s="2">
-        <v>228671</v>
+      <c r="B703">
+        <v>228671000</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>38899</v>
       </c>
-      <c r="B704" s="2">
-        <v>228912</v>
+      <c r="B704">
+        <v>228912000</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>38930</v>
       </c>
-      <c r="B705" s="2">
-        <v>229167</v>
+      <c r="B705">
+        <v>229167000</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>38961</v>
       </c>
-      <c r="B706" s="2">
-        <v>229420</v>
+      <c r="B706">
+        <v>229420000</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>38991</v>
       </c>
-      <c r="B707" s="2">
-        <v>229675</v>
+      <c r="B707">
+        <v>229675000</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>39022</v>
       </c>
-      <c r="B708" s="2">
-        <v>229905</v>
+      <c r="B708">
+        <v>229905000</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>39052</v>
       </c>
-      <c r="B709" s="2">
-        <v>230108</v>
+      <c r="B709">
+        <v>230108000</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>39083</v>
       </c>
-      <c r="B710" s="2">
-        <v>230650</v>
+      <c r="B710">
+        <v>230650000</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>39114</v>
       </c>
-      <c r="B711" s="2">
-        <v>230834</v>
+      <c r="B711">
+        <v>230834000</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>39142</v>
       </c>
-      <c r="B712" s="2">
-        <v>231034</v>
+      <c r="B712">
+        <v>231034000</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>39173</v>
       </c>
-      <c r="B713" s="2">
-        <v>231253</v>
+      <c r="B713">
+        <v>231253000</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>39203</v>
       </c>
-      <c r="B714" s="2">
-        <v>231480</v>
+      <c r="B714">
+        <v>231480000</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>39234</v>
       </c>
-      <c r="B715" s="2">
-        <v>231713</v>
+      <c r="B715">
+        <v>231713000</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>39264</v>
       </c>
-      <c r="B716" s="2">
-        <v>231958</v>
+      <c r="B716">
+        <v>231958000</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>39295</v>
       </c>
-      <c r="B717" s="2">
-        <v>232211</v>
+      <c r="B717">
+        <v>232211000</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>39326</v>
       </c>
-      <c r="B718" s="2">
-        <v>232461</v>
+      <c r="B718">
+        <v>232461000</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>39356</v>
       </c>
-      <c r="B719" s="2">
-        <v>232715</v>
+      <c r="B719">
+        <v>232715000</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>39387</v>
       </c>
-      <c r="B720" s="2">
-        <v>232939</v>
+      <c r="B720">
+        <v>232939000</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>39417</v>
       </c>
-      <c r="B721" s="2">
-        <v>233156</v>
+      <c r="B721">
+        <v>233156000</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>39448</v>
       </c>
-      <c r="B722" s="2">
-        <v>232616</v>
+      <c r="B722">
+        <v>232616000</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>39479</v>
       </c>
-      <c r="B723" s="2">
-        <v>232809</v>
+      <c r="B723">
+        <v>232809000</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>39508</v>
       </c>
-      <c r="B724" s="2">
-        <v>232995</v>
+      <c r="B724">
+        <v>232995000</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>39539</v>
       </c>
-      <c r="B725" s="2">
-        <v>233198</v>
+      <c r="B725">
+        <v>233198000</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>39569</v>
       </c>
-      <c r="B726" s="2">
-        <v>233405</v>
+      <c r="B726">
+        <v>233405000</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>39600</v>
       </c>
-      <c r="B727" s="2">
-        <v>233627</v>
+      <c r="B727">
+        <v>233627000</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>39630</v>
       </c>
-      <c r="B728" s="2">
-        <v>233864</v>
+      <c r="B728">
+        <v>233864000</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>39661</v>
       </c>
-      <c r="B729" s="2">
-        <v>234107</v>
+      <c r="B729">
+        <v>234107000</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>39692</v>
       </c>
-      <c r="B730" s="2">
-        <v>234360</v>
+      <c r="B730">
+        <v>234360000</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>39722</v>
       </c>
-      <c r="B731" s="2">
-        <v>234612</v>
+      <c r="B731">
+        <v>234612000</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>39753</v>
       </c>
-      <c r="B732" s="2">
-        <v>234828</v>
+      <c r="B732">
+        <v>234828000</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>39783</v>
       </c>
-      <c r="B733" s="2">
-        <v>235035</v>
+      <c r="B733">
+        <v>235035000</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>39814</v>
       </c>
-      <c r="B734" s="2">
-        <v>234739</v>
+      <c r="B734">
+        <v>234739000</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>39845</v>
       </c>
-      <c r="B735" s="2">
-        <v>234913</v>
+      <c r="B735">
+        <v>234913000</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>39873</v>
       </c>
-      <c r="B736" s="2">
-        <v>235086</v>
+      <c r="B736">
+        <v>235086000</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>39904</v>
       </c>
-      <c r="B737" s="2">
-        <v>235271</v>
+      <c r="B737">
+        <v>235271000</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>39934</v>
       </c>
-      <c r="B738" s="2">
-        <v>235452</v>
+      <c r="B738">
+        <v>235452000</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>39965</v>
       </c>
-      <c r="B739" s="2">
-        <v>235655</v>
+      <c r="B739">
+        <v>235655000</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>39995</v>
       </c>
-      <c r="B740" s="2">
-        <v>235870</v>
+      <c r="B740">
+        <v>235870000</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>40026</v>
       </c>
-      <c r="B741" s="2">
-        <v>236087</v>
+      <c r="B741">
+        <v>236087000</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>40057</v>
       </c>
-      <c r="B742" s="2">
-        <v>236322</v>
+      <c r="B742">
+        <v>236322000</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>40087</v>
       </c>
-      <c r="B743" s="2">
-        <v>236550</v>
+      <c r="B743">
+        <v>236550000</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>40118</v>
       </c>
-      <c r="B744" s="2">
-        <v>236743</v>
+      <c r="B744">
+        <v>236743000</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>40148</v>
       </c>
-      <c r="B745" s="2">
-        <v>236924</v>
+      <c r="B745">
+        <v>236924000</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>40179</v>
       </c>
-      <c r="B746" s="2">
-        <v>236832</v>
+      <c r="B746">
+        <v>236832000</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>40210</v>
       </c>
-      <c r="B747" s="2">
-        <v>236998</v>
+      <c r="B747">
+        <v>236998000</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>40238</v>
       </c>
-      <c r="B748" s="2">
-        <v>237159</v>
+      <c r="B748">
+        <v>237159000</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>40269</v>
       </c>
-      <c r="B749" s="2">
-        <v>237329</v>
+      <c r="B749">
+        <v>237329000</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>40299</v>
       </c>
-      <c r="B750" s="2">
-        <v>237499</v>
+      <c r="B750">
+        <v>237499000</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>40330</v>
       </c>
-      <c r="B751" s="2">
-        <v>237690</v>
+      <c r="B751">
+        <v>237690000</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <v>40360</v>
       </c>
-      <c r="B752" s="2">
-        <v>237890</v>
+      <c r="B752">
+        <v>237890000</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>40391</v>
       </c>
-      <c r="B753" s="2">
-        <v>238099</v>
+      <c r="B753">
+        <v>238099000</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>40422</v>
       </c>
-      <c r="B754" s="2">
-        <v>238322</v>
+      <c r="B754">
+        <v>238322000</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>40452</v>
       </c>
-      <c r="B755" s="2">
-        <v>238530</v>
+      <c r="B755">
+        <v>238530000</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>40483</v>
       </c>
-      <c r="B756" s="2">
-        <v>238715</v>
+      <c r="B756">
+        <v>238715000</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>40513</v>
       </c>
-      <c r="B757" s="2">
-        <v>238889</v>
+      <c r="B757">
+        <v>238889000</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <v>40544</v>
       </c>
-      <c r="B758" s="2">
-        <v>238704</v>
+      <c r="B758">
+        <v>238704000</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>40575</v>
       </c>
-      <c r="B759" s="2">
-        <v>238851</v>
+      <c r="B759">
+        <v>238851000</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <v>40603</v>
       </c>
-      <c r="B760" s="2">
-        <v>239000</v>
+      <c r="B760">
+        <v>239000000</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <v>40634</v>
       </c>
-      <c r="B761" s="2">
-        <v>239146</v>
+      <c r="B761">
+        <v>239146000</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>40664</v>
       </c>
-      <c r="B762" s="2">
-        <v>239313</v>
+      <c r="B762">
+        <v>239313000</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <v>40695</v>
       </c>
-      <c r="B763" s="2">
-        <v>239489</v>
+      <c r="B763">
+        <v>239489000</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <v>40725</v>
       </c>
-      <c r="B764" s="2">
-        <v>239671</v>
+      <c r="B764">
+        <v>239671000</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <v>40756</v>
       </c>
-      <c r="B765" s="2">
-        <v>239871</v>
+      <c r="B765">
+        <v>239871000</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>40787</v>
       </c>
-      <c r="B766" s="2">
-        <v>240071</v>
+      <c r="B766">
+        <v>240071000</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <v>40817</v>
       </c>
-      <c r="B767" s="2">
-        <v>240269</v>
+      <c r="B767">
+        <v>240269000</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <v>40848</v>
       </c>
-      <c r="B768" s="2">
-        <v>240441</v>
+      <c r="B768">
+        <v>240441000</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>40878</v>
       </c>
-      <c r="B769" s="2">
-        <v>240584</v>
+      <c r="B769">
+        <v>240584000</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <v>40909</v>
       </c>
-      <c r="B770" s="2">
-        <v>242269</v>
+      <c r="B770">
+        <v>242269000</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <v>40940</v>
       </c>
-      <c r="B771" s="2">
-        <v>242435</v>
+      <c r="B771">
+        <v>242435000</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
         <v>40969</v>
       </c>
-      <c r="B772" s="2">
-        <v>242604</v>
+      <c r="B772">
+        <v>242604000</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
         <v>41000</v>
       </c>
-      <c r="B773" s="2">
-        <v>242784</v>
+      <c r="B773">
+        <v>242784000</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <v>41030</v>
       </c>
-      <c r="B774" s="2">
-        <v>242966</v>
+      <c r="B774">
+        <v>242966000</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <v>41061</v>
       </c>
-      <c r="B775" s="2">
-        <v>243155</v>
+      <c r="B775">
+        <v>243155000</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
         <v>41091</v>
       </c>
-      <c r="B776" s="2">
-        <v>243354</v>
+      <c r="B776">
+        <v>243354000</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <v>41122</v>
       </c>
-      <c r="B777" s="2">
-        <v>243566</v>
+      <c r="B777">
+        <v>243566000</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <v>41153</v>
       </c>
-      <c r="B778" s="2">
-        <v>243772</v>
+      <c r="B778">
+        <v>243772000</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
         <v>41183</v>
       </c>
-      <c r="B779" s="2">
-        <v>243983</v>
+      <c r="B779">
+        <v>243983000</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <v>41214</v>
       </c>
-      <c r="B780" s="2">
-        <v>244174</v>
+      <c r="B780">
+        <v>244174000</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <v>41244</v>
       </c>
-      <c r="B781" s="2">
-        <v>244350</v>
+      <c r="B781">
+        <v>244350000</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <v>41275</v>
       </c>
-      <c r="B782" s="2">
-        <v>244663</v>
+      <c r="B782">
+        <v>244663000</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <v>41306</v>
       </c>
-      <c r="B783" s="2">
-        <v>244828</v>
+      <c r="B783">
+        <v>244828000</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <v>41334</v>
       </c>
-      <c r="B784" s="2">
-        <v>244995</v>
+      <c r="B784">
+        <v>244995000</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
         <v>41365</v>
       </c>
-      <c r="B785" s="2">
-        <v>245175</v>
+      <c r="B785">
+        <v>245175000</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <v>41395</v>
       </c>
-      <c r="B786" s="2">
-        <v>245363</v>
+      <c r="B786">
+        <v>245363000</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
         <v>41426</v>
       </c>
-      <c r="B787" s="2">
-        <v>245552</v>
+      <c r="B787">
+        <v>245552000</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
         <v>41456</v>
       </c>
-      <c r="B788" s="2">
-        <v>245756</v>
+      <c r="B788">
+        <v>245756000</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <v>41487</v>
       </c>
-      <c r="B789" s="2">
-        <v>245959</v>
+      <c r="B789">
+        <v>245959000</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <v>41518</v>
       </c>
-      <c r="B790" s="2">
-        <v>246168</v>
+      <c r="B790">
+        <v>246168000</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <v>41548</v>
       </c>
-      <c r="B791" s="2">
-        <v>246381</v>
+      <c r="B791">
+        <v>246381000</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
         <v>41579</v>
       </c>
-      <c r="B792" s="2">
-        <v>246567</v>
+      <c r="B792">
+        <v>246567000</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <v>41609</v>
       </c>
-      <c r="B793" s="2">
-        <v>246745</v>
+      <c r="B793">
+        <v>246745000</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
         <v>41640</v>
       </c>
-      <c r="B794" s="2">
-        <v>246915</v>
+      <c r="B794">
+        <v>246915000</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
         <v>41671</v>
       </c>
-      <c r="B795" s="2">
-        <v>247085</v>
+      <c r="B795">
+        <v>247085000</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
         <v>41699</v>
       </c>
-      <c r="B796" s="2">
-        <v>247258</v>
+      <c r="B796">
+        <v>247258000</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
         <v>41730</v>
       </c>
-      <c r="B797" s="2">
-        <v>247439</v>
+      <c r="B797">
+        <v>247439000</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
         <v>41760</v>
       </c>
-      <c r="B798" s="2">
-        <v>247622</v>
+      <c r="B798">
+        <v>247622000</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
         <v>41791</v>
       </c>
-      <c r="B799" s="2">
-        <v>247814</v>
+      <c r="B799">
+        <v>247814000</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
         <v>41821</v>
       </c>
-      <c r="B800" s="2">
-        <v>248023</v>
+      <c r="B800">
+        <v>248023000</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
         <v>41852</v>
       </c>
-      <c r="B801" s="2">
-        <v>248229</v>
+      <c r="B801">
+        <v>248229000</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
         <v>41883</v>
       </c>
-      <c r="B802" s="2">
-        <v>248446</v>
+      <c r="B802">
+        <v>248446000</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
         <v>41913</v>
       </c>
-      <c r="B803" s="2">
-        <v>248657</v>
+      <c r="B803">
+        <v>248657000</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
         <v>41944</v>
       </c>
-      <c r="B804" s="2">
-        <v>248844</v>
+      <c r="B804">
+        <v>248844000</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
         <v>41974</v>
       </c>
-      <c r="B805" s="2">
-        <v>249027</v>
+      <c r="B805">
+        <v>249027000</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
         <v>42005</v>
       </c>
-      <c r="B806" s="2">
-        <v>249723</v>
+      <c r="B806">
+        <v>249723000</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
         <v>42036</v>
       </c>
-      <c r="B807" s="2">
-        <v>249899</v>
+      <c r="B807">
+        <v>249899000</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
         <v>42064</v>
       </c>
-      <c r="B808" s="2">
-        <v>250080</v>
+      <c r="B808">
+        <v>250080000</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
         <v>42095</v>
       </c>
-      <c r="B809" s="2">
-        <v>250266</v>
+      <c r="B809">
+        <v>250266000</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
         <v>42125</v>
       </c>
-      <c r="B810" s="2">
-        <v>250455</v>
+      <c r="B810">
+        <v>250455000</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
         <v>42156</v>
       </c>
-      <c r="B811" s="2">
-        <v>250663</v>
+      <c r="B811">
+        <v>250663000</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
         <v>42186</v>
       </c>
-      <c r="B812" s="2">
-        <v>250876</v>
+      <c r="B812">
+        <v>250876000</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
         <v>42217</v>
       </c>
-      <c r="B813" s="2">
-        <v>251096</v>
+      <c r="B813">
+        <v>251096000</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
         <v>42248</v>
       </c>
-      <c r="B814" s="2">
-        <v>251325</v>
+      <c r="B814">
+        <v>251325000</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
         <v>42278</v>
       </c>
-      <c r="B815" s="2">
-        <v>251541</v>
+      <c r="B815">
+        <v>251541000</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
         <v>42309</v>
       </c>
-      <c r="B816" s="2">
-        <v>251747</v>
+      <c r="B816">
+        <v>251747000</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
         <v>42339</v>
       </c>
-      <c r="B817" s="2">
-        <v>251936</v>
+      <c r="B817">
+        <v>251936000</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
         <v>42370</v>
       </c>
-      <c r="B818" s="2">
-        <v>252397</v>
+      <c r="B818">
+        <v>252397000</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
         <v>42401</v>
       </c>
-      <c r="B819" s="2">
-        <v>252577</v>
+      <c r="B819">
+        <v>252577000</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
         <v>42430</v>
       </c>
-      <c r="B820" s="2">
-        <v>252768</v>
+      <c r="B820">
+        <v>252768000</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
         <v>42461</v>
       </c>
-      <c r="B821" s="2">
-        <v>252969</v>
+      <c r="B821">
+        <v>252969000</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
         <v>42491</v>
       </c>
-      <c r="B822" s="2">
-        <v>253174</v>
+      <c r="B822">
+        <v>253174000</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
         <v>42522</v>
       </c>
-      <c r="B823" s="2">
-        <v>253397</v>
+      <c r="B823">
+        <v>253397000</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A824" s="1">
         <v>42552</v>
       </c>
-      <c r="B824" s="2">
-        <v>253620</v>
+      <c r="B824">
+        <v>253620000</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825" s="1">
         <v>42583</v>
       </c>
-      <c r="B825" s="2">
-        <v>253854</v>
+      <c r="B825">
+        <v>253854000</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826" s="1">
         <v>42614</v>
       </c>
-      <c r="B826" s="2">
-        <v>254091</v>
+      <c r="B826">
+        <v>254091000</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827" s="1">
         <v>42644</v>
       </c>
-      <c r="B827" s="2">
-        <v>254321</v>
+      <c r="B827">
+        <v>254321000</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828" s="1">
         <v>42675</v>
       </c>
-      <c r="B828" s="2">
-        <v>254540</v>
+      <c r="B828">
+        <v>254540000</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829" s="1">
         <v>42705</v>
       </c>
-      <c r="B829" s="2">
-        <v>254742</v>
+      <c r="B829">
+        <v>254742000</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830" s="1">
         <v>42736</v>
       </c>
-      <c r="B830" s="2">
-        <v>254082</v>
+      <c r="B830">
+        <v>254082000</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831" s="1">
         <v>42767</v>
       </c>
-      <c r="B831" s="2">
-        <v>254246</v>
+      <c r="B831">
+        <v>254246000</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832" s="1">
         <v>42795</v>
       </c>
-      <c r="B832" s="2">
-        <v>254414</v>
+      <c r="B832">
+        <v>254414000</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A833" s="1">
         <v>42826</v>
       </c>
-      <c r="B833" s="2">
-        <v>254588</v>
+      <c r="B833">
+        <v>254588000</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" s="1">
         <v>42856</v>
       </c>
-      <c r="B834" s="2">
-        <v>254767</v>
+      <c r="B834">
+        <v>254767000</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835" s="1">
         <v>42887</v>
       </c>
-      <c r="B835" s="2">
-        <v>254957</v>
+      <c r="B835">
+        <v>254957000</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836" s="1">
         <v>42917</v>
       </c>
-      <c r="B836" s="2">
-        <v>255151</v>
+      <c r="B836">
+        <v>255151000</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837" s="1">
         <v>42948</v>
       </c>
-      <c r="B837" s="2">
-        <v>255357</v>
+      <c r="B837">
+        <v>255357000</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A838" s="1">
         <v>42979</v>
       </c>
-      <c r="B838" s="2">
-        <v>255562</v>
+      <c r="B838">
+        <v>255562000</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839" s="1">
         <v>43009</v>
       </c>
-      <c r="B839" s="2">
-        <v>255766</v>
+      <c r="B839">
+        <v>255766000</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840" s="1">
         <v>43040</v>
       </c>
-      <c r="B840" s="2">
-        <v>255949</v>
+      <c r="B840">
+        <v>255949000</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841" s="1">
         <v>43070</v>
       </c>
-      <c r="B841" s="2">
-        <v>256109</v>
+      <c r="B841">
+        <v>256109000</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842" s="1">
         <v>43101</v>
       </c>
-      <c r="B842" s="2">
-        <v>256780</v>
+      <c r="B842">
+        <v>256780000</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843" s="1">
         <v>43132</v>
       </c>
-      <c r="B843" s="2">
-        <v>256934</v>
+      <c r="B843">
+        <v>256934000</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844" s="1">
         <v>43160</v>
       </c>
-      <c r="B844" s="2">
-        <v>257097</v>
+      <c r="B844">
+        <v>257097000</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845" s="1">
         <v>43191</v>
       </c>
-      <c r="B845" s="2">
-        <v>257272</v>
+      <c r="B845">
+        <v>257272000</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846" s="1">
         <v>43221</v>
       </c>
-      <c r="B846" s="2">
-        <v>257454</v>
+      <c r="B846">
+        <v>257454000</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847" s="1">
         <v>43252</v>
       </c>
-      <c r="B847" s="2">
-        <v>257642</v>
+      <c r="B847">
+        <v>257642000</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" s="1">
         <v>43282</v>
       </c>
-      <c r="B848" s="2">
-        <v>257843</v>
+      <c r="B848">
+        <v>257843000</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" s="1">
         <v>43313</v>
       </c>
-      <c r="B849" s="2">
-        <v>258066</v>
+      <c r="B849">
+        <v>258066000</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" s="1">
         <v>43344</v>
       </c>
-      <c r="B850" s="2">
-        <v>258290</v>
+      <c r="B850">
+        <v>258290000</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" s="1">
         <v>43374</v>
       </c>
-      <c r="B851" s="2">
-        <v>258514</v>
+      <c r="B851">
+        <v>258514000</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" s="1">
         <v>43405</v>
       </c>
-      <c r="B852" s="2">
-        <v>258708</v>
+      <c r="B852">
+        <v>258708000</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853" s="1">
         <v>43435</v>
       </c>
-      <c r="B853" s="2">
-        <v>258888</v>
+      <c r="B853">
+        <v>258888000</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854" s="1">
         <v>43466</v>
       </c>
-      <c r="B854" s="2">
-        <v>258239</v>
+      <c r="B854">
+        <v>258239000</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" s="1">
         <v>43497</v>
       </c>
-      <c r="B855" s="2">
-        <v>258392</v>
+      <c r="B855">
+        <v>258392000</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" s="1">
         <v>43525</v>
       </c>
-      <c r="B856" s="2">
-        <v>258537</v>
+      <c r="B856">
+        <v>258537000</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" s="1">
         <v>43556</v>
       </c>
-      <c r="B857" s="2">
-        <v>258693</v>
+      <c r="B857">
+        <v>258693000</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" s="1">
         <v>43586</v>
       </c>
-      <c r="B858" s="2">
-        <v>258861</v>
+      <c r="B858">
+        <v>258861000</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" s="1">
         <v>43617</v>
       </c>
-      <c r="B859" s="2">
-        <v>259037</v>
+      <c r="B859">
+        <v>259037000</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" s="1">
         <v>43647</v>
       </c>
-      <c r="B860" s="2">
-        <v>259225</v>
+      <c r="B860">
+        <v>259225000</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" s="1">
         <v>43678</v>
       </c>
-      <c r="B861" s="2">
-        <v>259432</v>
+      <c r="B861">
+        <v>259432000</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" s="1">
         <v>43709</v>
       </c>
-      <c r="B862" s="2">
-        <v>259638</v>
+      <c r="B862">
+        <v>259638000</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" s="1">
         <v>43739</v>
       </c>
-      <c r="B863" s="2">
-        <v>259845</v>
+      <c r="B863">
+        <v>259845000</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" s="1">
         <v>43770</v>
       </c>
-      <c r="B864" s="2">
-        <v>260020</v>
+      <c r="B864">
+        <v>260020000</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" s="1">
         <v>43800</v>
       </c>
-      <c r="B865" s="2">
-        <v>260181</v>
+      <c r="B865">
+        <v>260181000</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" s="1">
         <v>43831</v>
       </c>
-      <c r="B866" s="2">
-        <v>259502</v>
+      <c r="B866">
+        <v>259502000</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" s="1">
         <v>43862</v>
       </c>
-      <c r="B867" s="2">
-        <v>259628</v>
+      <c r="B867">
+        <v>259628000</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868" s="1">
         <v>43891</v>
       </c>
-      <c r="B868" s="2">
-        <v>259758</v>
+      <c r="B868">
+        <v>259758000</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" s="1">
         <v>43922</v>
       </c>
-      <c r="B869" s="2">
-        <v>259896</v>
+      <c r="B869">
+        <v>259896000</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" s="1">
         <v>43952</v>
       </c>
-      <c r="B870" s="2">
-        <v>260047</v>
+      <c r="B870">
+        <v>260047000</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871" s="1">
         <v>43983</v>
       </c>
-      <c r="B871" s="2">
-        <v>260204</v>
+      <c r="B871">
+        <v>260204000</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A872" s="1">
         <v>44013</v>
       </c>
-      <c r="B872" s="2">
-        <v>260373</v>
+      <c r="B872">
+        <v>260373000</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" s="1">
         <v>44044</v>
       </c>
-      <c r="B873" s="2">
-        <v>260558</v>
+      <c r="B873">
+        <v>260558000</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A874" s="1">
         <v>44075</v>
       </c>
-      <c r="B874" s="2">
-        <v>260742</v>
+      <c r="B874">
+        <v>260742000</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875" s="1">
         <v>44105</v>
       </c>
-      <c r="B875" s="2">
-        <v>260925</v>
+      <c r="B875">
+        <v>260925000</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876" s="1">
         <v>44136</v>
       </c>
-      <c r="B876" s="2">
-        <v>261085</v>
+      <c r="B876">
+        <v>261085000</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" s="1">
         <v>44166</v>
       </c>
-      <c r="B877" s="2">
-        <v>261230</v>
+      <c r="B877">
+        <v>261230000</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878" s="1">
         <v>44197</v>
       </c>
-      <c r="B878" s="2">
-        <v>260851</v>
+      <c r="B878">
+        <v>260851000</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879" s="1">
         <v>44228</v>
       </c>
-      <c r="B879" s="2">
-        <v>260918</v>
+      <c r="B879">
+        <v>260918000</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" s="1">
         <v>44256</v>
       </c>
-      <c r="B880" s="2">
-        <v>261003</v>
+      <c r="B880">
+        <v>261003000</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" s="1">
         <v>44287</v>
       </c>
-      <c r="B881" s="2">
-        <v>261103</v>
+      <c r="B881">
+        <v>261103000</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" s="1">
         <v>44317</v>
       </c>
-      <c r="B882" s="2">
-        <v>261210</v>
+      <c r="B882">
+        <v>261210000</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" s="1">
         <v>44348</v>
       </c>
-      <c r="B883" s="2">
-        <v>261338</v>
+      <c r="B883">
+        <v>261338000</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" s="1">
         <v>44378</v>
       </c>
-      <c r="B884" s="2">
-        <v>261469</v>
+      <c r="B884">
+        <v>261469000</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885" s="1">
         <v>44409</v>
       </c>
-      <c r="B885" s="2">
-        <v>261611</v>
+      <c r="B885">
+        <v>261611000</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886" s="1">
         <v>44440</v>
       </c>
-      <c r="B886" s="2">
-        <v>261766</v>
+      <c r="B886">
+        <v>261766000</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887" s="1">
         <v>44470</v>
       </c>
-      <c r="B887" s="2">
-        <v>261908</v>
+      <c r="B887">
+        <v>261908000</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888" s="1">
         <v>44501</v>
       </c>
-      <c r="B888" s="2">
-        <v>262029</v>
+      <c r="B888">
+        <v>262029000</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" s="1">
         <v>44531</v>
       </c>
-      <c r="B889" s="2">
-        <v>262136</v>
+      <c r="B889">
+        <v>262136000</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" s="1">
         <v>44562</v>
       </c>
-      <c r="B890" s="2">
-        <v>263202</v>
+      <c r="B890">
+        <v>263202000</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" s="1">
         <v>44593</v>
       </c>
-      <c r="B891" s="2">
-        <v>263324</v>
+      <c r="B891">
+        <v>263324000</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" s="1">
         <v>44621</v>
       </c>
-      <c r="B892" s="2">
-        <v>263444</v>
+      <c r="B892">
+        <v>263444000</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" s="1">
         <v>44652</v>
       </c>
-      <c r="B893" s="2">
-        <v>263559</v>
+      <c r="B893">
+        <v>263559000</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894" s="1">
         <v>44682</v>
       </c>
-      <c r="B894" s="2">
-        <v>263679</v>
+      <c r="B894">
+        <v>263679000</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" s="1">
         <v>44713</v>
       </c>
-      <c r="B895" s="2">
-        <v>263835</v>
+      <c r="B895">
+        <v>263835000</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" s="1">
         <v>44743</v>
       </c>
-      <c r="B896" s="2">
-        <v>264012</v>
+      <c r="B896">
+        <v>264012000</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" s="1">
         <v>44774</v>
       </c>
-      <c r="B897" s="2">
-        <v>264184</v>
+      <c r="B897">
+        <v>264184000</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" s="1">
         <v>44805</v>
       </c>
-      <c r="B898" s="2">
-        <v>264356</v>
+      <c r="B898">
+        <v>264356000</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" s="1">
         <v>44835</v>
       </c>
-      <c r="B899" s="2">
-        <v>264535</v>
+      <c r="B899">
+        <v>264535000</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" s="1">
         <v>44866</v>
       </c>
-      <c r="B900" s="2">
-        <v>264708</v>
+      <c r="B900">
+        <v>264708000</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" s="1">
         <v>44896</v>
       </c>
-      <c r="B901" s="2">
-        <v>264844</v>
+      <c r="B901">
+        <v>264844000</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" s="1">
         <v>44927</v>
       </c>
-      <c r="B902" s="2">
-        <v>265962</v>
+      <c r="B902">
+        <v>265962000</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" s="1">
         <v>44958</v>
       </c>
-      <c r="B903" s="2">
-        <v>266112</v>
+      <c r="B903">
+        <v>266112000</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" s="1">
         <v>44986</v>
       </c>
-      <c r="B904" s="2">
-        <v>266272</v>
+      <c r="B904">
+        <v>266272000</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" s="1">
         <v>45017</v>
       </c>
-      <c r="B905" s="2">
-        <v>266443</v>
+      <c r="B905">
+        <v>266443000</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" s="1">
         <v>45047</v>
       </c>
-      <c r="B906" s="2">
-        <v>266618</v>
+      <c r="B906">
+        <v>266618000</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A907" s="1">
         <v>45078</v>
       </c>
-      <c r="B907" s="2">
-        <v>266801</v>
+      <c r="B907">
+        <v>266801000</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" s="1">
         <v>45108</v>
       </c>
-      <c r="B908" s="2">
-        <v>267002</v>
+      <c r="B908">
+        <v>267002000</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" s="1">
         <v>45139</v>
       </c>
-      <c r="B909" s="2">
-        <v>267213</v>
+      <c r="B909">
+        <v>267213000</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" s="1">
         <v>45170</v>
       </c>
-      <c r="B910" s="2">
-        <v>267428</v>
+      <c r="B910">
+        <v>267428000</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" s="1">
         <v>45200</v>
       </c>
-      <c r="B911" s="2">
-        <v>267642</v>
+      <c r="B911">
+        <v>267642000</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" s="1">
         <v>45231</v>
       </c>
-      <c r="B912" s="2">
-        <v>267822</v>
+      <c r="B912">
+        <v>267822000</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" s="1">
         <v>45261</v>
       </c>
-      <c r="B913" s="2">
-        <v>267991</v>
+      <c r="B913">
+        <v>267991000</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" s="1">
         <v>45292</v>
       </c>
-      <c r="B914" s="2">
-        <v>267540</v>
+      <c r="B914">
+        <v>267540000</v>
       </c>
     </row>
   </sheetData>
